--- a/BackTest/2019-10-21 BackTest MTL.xlsx
+++ b/BackTest/2019-10-21 BackTest MTL.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>18</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
       <c r="L12" t="n">
         <v>354.8</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>20</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>28.57142857142857</v>
+      </c>
       <c r="L13" t="n">
         <v>354.9</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>22</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>37.5</v>
+      </c>
       <c r="L14" t="n">
         <v>355.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>22</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>356.1</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>24</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>356.4</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>26</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>357.1</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>26</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>28.57142857142857</v>
+      </c>
       <c r="L18" t="n">
         <v>357.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>28</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>46.66666666666666</v>
+      </c>
       <c r="L19" t="n">
         <v>358.2</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>28</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L20" t="n">
         <v>358.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>31</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-7.692307692307693</v>
+      </c>
       <c r="L21" t="n">
         <v>358.9</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>34</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>28.57142857142857</v>
+      </c>
       <c r="L22" t="n">
         <v>359.1</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>34</v>
       </c>
       <c r="K23" t="n">
-        <v>16.12903225806452</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L23" t="n">
         <v>359.5</v>
@@ -1466,7 +1488,7 @@
         <v>35</v>
       </c>
       <c r="K24" t="n">
-        <v>31.03448275862069</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L24" t="n">
         <v>359.8</v>
@@ -1515,7 +1537,7 @@
         <v>37</v>
       </c>
       <c r="K25" t="n">
-        <v>35.48387096774194</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L25" t="n">
         <v>360.3</v>
@@ -1564,7 +1586,7 @@
         <v>38</v>
       </c>
       <c r="K26" t="n">
-        <v>29.03225806451613</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>360.9</v>
@@ -1613,7 +1635,7 @@
         <v>41</v>
       </c>
       <c r="K27" t="n">
-        <v>25</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L27" t="n">
         <v>361</v>
@@ -1662,7 +1684,7 @@
         <v>41</v>
       </c>
       <c r="K28" t="n">
-        <v>20</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L28" t="n">
         <v>361.1</v>
@@ -1711,7 +1733,7 @@
         <v>42</v>
       </c>
       <c r="K29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>361.1</v>
@@ -1760,7 +1782,7 @@
         <v>42</v>
       </c>
       <c r="K30" t="n">
-        <v>24.13793103448276</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L30" t="n">
         <v>361.1</v>
@@ -1809,7 +1831,7 @@
         <v>43</v>
       </c>
       <c r="K31" t="n">
-        <v>7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L31" t="n">
         <v>361.3</v>
@@ -1860,7 +1882,7 @@
         <v>43</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L32" t="n">
         <v>361.2</v>
@@ -1911,7 +1933,7 @@
         <v>43</v>
       </c>
       <c r="K33" t="n">
-        <v>13.04347826086956</v>
+        <v>-25</v>
       </c>
       <c r="L33" t="n">
         <v>361.1</v>
@@ -1962,7 +1984,7 @@
         <v>43</v>
       </c>
       <c r="K34" t="n">
-        <v>4.761904761904762</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L34" t="n">
         <v>360.9</v>
@@ -2013,7 +2035,7 @@
         <v>43</v>
       </c>
       <c r="K35" t="n">
-        <v>4.761904761904762</v>
+        <v>-60</v>
       </c>
       <c r="L35" t="n">
         <v>360.5</v>
@@ -2064,7 +2086,7 @@
         <v>43</v>
       </c>
       <c r="K36" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>360.2</v>
@@ -2115,7 +2137,7 @@
         <v>45</v>
       </c>
       <c r="K37" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L37" t="n">
         <v>360.4</v>
@@ -2166,7 +2188,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="n">
-        <v>4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L38" t="n">
         <v>360.4</v>
@@ -2217,7 +2239,7 @@
         <v>49</v>
       </c>
       <c r="K39" t="n">
-        <v>4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L39" t="n">
         <v>360.5</v>
@@ -2268,7 +2290,7 @@
         <v>51</v>
       </c>
       <c r="K40" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>360.4</v>
@@ -2319,7 +2341,7 @@
         <v>52</v>
       </c>
       <c r="K41" t="n">
-        <v>4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L41" t="n">
         <v>360.3</v>
@@ -2472,7 +2494,7 @@
         <v>52</v>
       </c>
       <c r="K44" t="n">
-        <v>-17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L44" t="n">
         <v>360</v>
@@ -2523,7 +2545,7 @@
         <v>52</v>
       </c>
       <c r="K45" t="n">
-        <v>-33.33333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L45" t="n">
         <v>359.9</v>
@@ -2574,7 +2596,7 @@
         <v>53</v>
       </c>
       <c r="K46" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L46" t="n">
         <v>359.9</v>
@@ -2625,7 +2647,7 @@
         <v>54</v>
       </c>
       <c r="K47" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>359.6</v>
@@ -2676,7 +2698,7 @@
         <v>55</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>359.6</v>
@@ -2727,7 +2749,7 @@
         <v>56</v>
       </c>
       <c r="K49" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L49" t="n">
         <v>359.3</v>
@@ -2778,7 +2800,7 @@
         <v>57</v>
       </c>
       <c r="K50" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L50" t="n">
         <v>359.3</v>
@@ -2829,7 +2851,7 @@
         <v>58</v>
       </c>
       <c r="K51" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>359.3</v>
@@ -2880,7 +2902,7 @@
         <v>58</v>
       </c>
       <c r="K52" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>359.3</v>
@@ -2931,7 +2953,7 @@
         <v>59</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L53" t="n">
         <v>359.4</v>
@@ -2982,7 +3004,7 @@
         <v>59</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L54" t="n">
         <v>359.5</v>
@@ -3084,7 +3106,7 @@
         <v>59</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L56" t="n">
         <v>359.6</v>
@@ -3135,7 +3157,7 @@
         <v>59</v>
       </c>
       <c r="K57" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>359.7</v>
@@ -3186,7 +3208,7 @@
         <v>59</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>359.7</v>
@@ -3237,7 +3259,7 @@
         <v>59</v>
       </c>
       <c r="K59" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>359.8</v>
@@ -3288,7 +3310,7 @@
         <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>359.7</v>
@@ -3339,7 +3361,7 @@
         <v>61</v>
       </c>
       <c r="K61" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>359.8</v>
@@ -3390,7 +3412,7 @@
         <v>61</v>
       </c>
       <c r="K62" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>359.9</v>
@@ -3441,7 +3463,7 @@
         <v>65</v>
       </c>
       <c r="K63" t="n">
-        <v>-23.07692307692308</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L63" t="n">
         <v>359.5</v>
@@ -3492,7 +3514,7 @@
         <v>69</v>
       </c>
       <c r="K64" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>359.5</v>
@@ -3543,7 +3565,7 @@
         <v>70</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L65" t="n">
         <v>359.4</v>
@@ -3594,7 +3616,7 @@
         <v>72</v>
       </c>
       <c r="K66" t="n">
-        <v>-15.78947368421053</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L66" t="n">
         <v>359.1</v>
@@ -3645,7 +3667,7 @@
         <v>74</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L67" t="n">
         <v>359</v>
@@ -3696,7 +3718,7 @@
         <v>74</v>
       </c>
       <c r="K68" t="n">
-        <v>-5.263157894736842</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L68" t="n">
         <v>358.9</v>
@@ -3849,7 +3871,7 @@
         <v>76</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L71" t="n">
         <v>358.8</v>
@@ -3900,7 +3922,7 @@
         <v>77</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.263157894736842</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L72" t="n">
         <v>358.6</v>
@@ -3951,7 +3973,7 @@
         <v>78</v>
       </c>
       <c r="K73" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L73" t="n">
         <v>358.9</v>
@@ -4002,7 +4024,7 @@
         <v>78</v>
       </c>
       <c r="K74" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>358.8</v>
@@ -4053,7 +4075,7 @@
         <v>78</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>358.8</v>
@@ -4104,7 +4126,7 @@
         <v>80</v>
       </c>
       <c r="K76" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L76" t="n">
         <v>358.8</v>
@@ -4155,7 +4177,7 @@
         <v>80</v>
       </c>
       <c r="K77" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>358.6</v>
@@ -4206,7 +4228,7 @@
         <v>82</v>
       </c>
       <c r="K78" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>358.6</v>
@@ -4257,7 +4279,7 @@
         <v>83</v>
       </c>
       <c r="K79" t="n">
-        <v>-8.333333333333332</v>
+        <v>-25</v>
       </c>
       <c r="L79" t="n">
         <v>358.5</v>
@@ -4308,7 +4330,7 @@
         <v>84</v>
       </c>
       <c r="K80" t="n">
-        <v>-8.333333333333332</v>
+        <v>-25</v>
       </c>
       <c r="L80" t="n">
         <v>358.2</v>
@@ -4359,7 +4381,7 @@
         <v>85</v>
       </c>
       <c r="K81" t="n">
-        <v>-16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L81" t="n">
         <v>357.9</v>
@@ -4410,7 +4432,7 @@
         <v>87</v>
       </c>
       <c r="K82" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L82" t="n">
         <v>357.9</v>
@@ -4461,7 +4483,7 @@
         <v>87</v>
       </c>
       <c r="K83" t="n">
-        <v>9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L83" t="n">
         <v>357.8</v>
@@ -4563,7 +4585,7 @@
         <v>87</v>
       </c>
       <c r="K85" t="n">
-        <v>-5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L85" t="n">
         <v>357.6</v>
@@ -4665,7 +4687,7 @@
         <v>88</v>
       </c>
       <c r="K87" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>357.6</v>
@@ -4716,7 +4738,7 @@
         <v>89</v>
       </c>
       <c r="K88" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>357.3</v>
@@ -4767,7 +4789,7 @@
         <v>91</v>
       </c>
       <c r="K89" t="n">
-        <v>-5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>357.3</v>
@@ -4818,7 +4840,7 @@
         <v>92</v>
       </c>
       <c r="K90" t="n">
-        <v>-17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L90" t="n">
         <v>357.3</v>
@@ -4869,7 +4891,7 @@
         <v>93</v>
       </c>
       <c r="K91" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>357.5</v>
@@ -4971,7 +4993,7 @@
         <v>94</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L93" t="n">
         <v>357.6</v>
@@ -5073,7 +5095,7 @@
         <v>96</v>
       </c>
       <c r="K95" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>357.4</v>
@@ -5175,7 +5197,7 @@
         <v>97</v>
       </c>
       <c r="K97" t="n">
-        <v>5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L97" t="n">
         <v>357.5</v>
@@ -5226,7 +5248,7 @@
         <v>97</v>
       </c>
       <c r="K98" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>357.7</v>
@@ -5277,7 +5299,7 @@
         <v>98</v>
       </c>
       <c r="K99" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>357.6</v>
@@ -5328,7 +5350,7 @@
         <v>98</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L100" t="n">
         <v>357.6</v>
@@ -5379,7 +5401,7 @@
         <v>98</v>
       </c>
       <c r="K101" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L101" t="n">
         <v>357.5</v>
@@ -5430,7 +5452,7 @@
         <v>99</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L102" t="n">
         <v>357.5</v>
@@ -5481,7 +5503,7 @@
         <v>99</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>357.4</v>
@@ -5532,7 +5554,7 @@
         <v>99</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>357.5</v>
@@ -5583,7 +5605,7 @@
         <v>100</v>
       </c>
       <c r="K105" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L105" t="n">
         <v>357.7</v>
@@ -5634,7 +5656,7 @@
         <v>100</v>
       </c>
       <c r="K106" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>357.9</v>
@@ -5685,7 +5707,7 @@
         <v>100</v>
       </c>
       <c r="K107" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>358</v>
@@ -5736,7 +5758,7 @@
         <v>102</v>
       </c>
       <c r="K108" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>357.9</v>
@@ -5787,7 +5809,7 @@
         <v>104</v>
       </c>
       <c r="K109" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>358.1</v>
@@ -5838,7 +5860,7 @@
         <v>104</v>
       </c>
       <c r="K110" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>358.3</v>
@@ -5889,7 +5911,7 @@
         <v>104</v>
       </c>
       <c r="K111" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L111" t="n">
         <v>358.5</v>
@@ -5940,7 +5962,7 @@
         <v>106</v>
       </c>
       <c r="K112" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L112" t="n">
         <v>358.4</v>
@@ -5991,7 +6013,7 @@
         <v>106</v>
       </c>
       <c r="K113" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L113" t="n">
         <v>358.3</v>
@@ -6042,7 +6064,7 @@
         <v>107</v>
       </c>
       <c r="K114" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L114" t="n">
         <v>358.1</v>
@@ -6093,7 +6115,7 @@
         <v>107</v>
       </c>
       <c r="K115" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L115" t="n">
         <v>357.8</v>
@@ -6144,7 +6166,7 @@
         <v>107</v>
       </c>
       <c r="K116" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L116" t="n">
         <v>357.5</v>
@@ -6195,7 +6217,7 @@
         <v>108</v>
       </c>
       <c r="K117" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>357.1</v>
@@ -6246,7 +6268,7 @@
         <v>108</v>
       </c>
       <c r="K118" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L118" t="n">
         <v>356.9</v>
@@ -6297,7 +6319,7 @@
         <v>110</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>356.7</v>
@@ -6348,7 +6370,7 @@
         <v>110</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>356.5</v>
@@ -6450,7 +6472,7 @@
         <v>112</v>
       </c>
       <c r="K122" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>356.1</v>
@@ -6501,7 +6523,7 @@
         <v>114</v>
       </c>
       <c r="K123" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L123" t="n">
         <v>356.1</v>
@@ -6552,7 +6574,7 @@
         <v>116</v>
       </c>
       <c r="K124" t="n">
-        <v>-17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L124" t="n">
         <v>356</v>
@@ -6603,7 +6625,7 @@
         <v>117</v>
       </c>
       <c r="K125" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>356</v>
@@ -6654,7 +6676,7 @@
         <v>120</v>
       </c>
       <c r="K126" t="n">
-        <v>-30</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L126" t="n">
         <v>355.7</v>
@@ -6705,7 +6727,7 @@
         <v>120</v>
       </c>
       <c r="K127" t="n">
-        <v>-30</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L127" t="n">
         <v>355.5</v>
@@ -6756,7 +6778,7 @@
         <v>121</v>
       </c>
       <c r="K128" t="n">
-        <v>-26.31578947368421</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L128" t="n">
         <v>355.2</v>
@@ -6807,7 +6829,7 @@
         <v>123</v>
       </c>
       <c r="K129" t="n">
-        <v>-26.31578947368421</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L129" t="n">
         <v>354.9</v>
@@ -6858,7 +6880,7 @@
         <v>124</v>
       </c>
       <c r="K130" t="n">
-        <v>-30</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L130" t="n">
         <v>354.5</v>
@@ -6909,7 +6931,7 @@
         <v>125</v>
       </c>
       <c r="K131" t="n">
-        <v>-23.80952380952381</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L131" t="n">
         <v>354.2</v>
@@ -6960,7 +6982,7 @@
         <v>126</v>
       </c>
       <c r="K132" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>354</v>
@@ -7011,7 +7033,7 @@
         <v>129</v>
       </c>
       <c r="K133" t="n">
-        <v>-30.43478260869566</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L133" t="n">
         <v>353.3</v>
@@ -7062,7 +7084,7 @@
         <v>132</v>
       </c>
       <c r="K134" t="n">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="L134" t="n">
         <v>353.1</v>
@@ -7113,7 +7135,7 @@
         <v>134</v>
       </c>
       <c r="K135" t="n">
-        <v>-18.51851851851852</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L135" t="n">
         <v>352.6</v>
@@ -7164,7 +7186,7 @@
         <v>136</v>
       </c>
       <c r="K136" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>352.6</v>
@@ -7215,7 +7237,7 @@
         <v>136</v>
       </c>
       <c r="K137" t="n">
-        <v>-7.142857142857142</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L137" t="n">
         <v>352.6</v>
@@ -7266,7 +7288,7 @@
         <v>136</v>
       </c>
       <c r="K138" t="n">
-        <v>-7.142857142857142</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L138" t="n">
         <v>352.7</v>
@@ -7317,7 +7339,7 @@
         <v>136</v>
       </c>
       <c r="K139" t="n">
-        <v>-15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>352.6</v>
@@ -7368,7 +7390,7 @@
         <v>136</v>
       </c>
       <c r="K140" t="n">
-        <v>-15.38461538461539</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L140" t="n">
         <v>352.6</v>
@@ -7419,7 +7441,7 @@
         <v>138</v>
       </c>
       <c r="K141" t="n">
-        <v>-21.42857142857143</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L141" t="n">
         <v>352.3</v>
@@ -7470,7 +7492,7 @@
         <v>140</v>
       </c>
       <c r="K142" t="n">
-        <v>-7.142857142857142</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L142" t="n">
         <v>352.3</v>
@@ -7521,7 +7543,7 @@
         <v>140</v>
       </c>
       <c r="K143" t="n">
-        <v>-15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>352.6</v>
@@ -7572,7 +7594,7 @@
         <v>144</v>
       </c>
       <c r="K144" t="n">
-        <v>-21.42857142857143</v>
+        <v>-20</v>
       </c>
       <c r="L144" t="n">
         <v>352.2</v>
@@ -7623,7 +7645,7 @@
         <v>146</v>
       </c>
       <c r="K145" t="n">
-        <v>-17.24137931034483</v>
+        <v>-20</v>
       </c>
       <c r="L145" t="n">
         <v>352.2</v>
@@ -7674,7 +7696,7 @@
         <v>146</v>
       </c>
       <c r="K146" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L146" t="n">
         <v>352</v>
@@ -7725,7 +7747,7 @@
         <v>147</v>
       </c>
       <c r="K147" t="n">
-        <v>-11.11111111111111</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L147" t="n">
         <v>351.7</v>
@@ -7776,7 +7798,7 @@
         <v>147</v>
       </c>
       <c r="K148" t="n">
-        <v>-7.692307692307693</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L148" t="n">
         <v>351.4</v>
@@ -7827,7 +7849,7 @@
         <v>147</v>
       </c>
       <c r="K149" t="n">
-        <v>-16.66666666666666</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L149" t="n">
         <v>351.1</v>
@@ -7878,7 +7900,7 @@
         <v>148</v>
       </c>
       <c r="K150" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>350.9</v>
@@ -7929,7 +7951,7 @@
         <v>149</v>
       </c>
       <c r="K151" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>350.8</v>
@@ -7980,7 +8002,7 @@
         <v>150</v>
       </c>
       <c r="K152" t="n">
-        <v>-16.66666666666666</v>
+        <v>-40</v>
       </c>
       <c r="L152" t="n">
         <v>350.4</v>
@@ -8031,7 +8053,7 @@
         <v>150</v>
       </c>
       <c r="K153" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>350</v>
@@ -8082,7 +8104,7 @@
         <v>151</v>
       </c>
       <c r="K154" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L154" t="n">
         <v>350.1</v>
@@ -8133,7 +8155,7 @@
         <v>151</v>
       </c>
       <c r="K155" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L155" t="n">
         <v>350</v>
@@ -8184,7 +8206,7 @@
         <v>151</v>
       </c>
       <c r="K156" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>349.9</v>
@@ -8235,7 +8257,7 @@
         <v>151</v>
       </c>
       <c r="K157" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>349.9</v>
@@ -8286,7 +8308,7 @@
         <v>151</v>
       </c>
       <c r="K158" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>349.9</v>
@@ -8337,7 +8359,7 @@
         <v>152</v>
       </c>
       <c r="K159" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L159" t="n">
         <v>349.8</v>
@@ -8388,7 +8410,7 @@
         <v>153</v>
       </c>
       <c r="K160" t="n">
-        <v>-29.41176470588236</v>
+        <v>-50</v>
       </c>
       <c r="L160" t="n">
         <v>349.5</v>
@@ -8439,7 +8461,7 @@
         <v>154</v>
       </c>
       <c r="K161" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L161" t="n">
         <v>349.2</v>
@@ -8490,7 +8512,7 @@
         <v>155</v>
       </c>
       <c r="K162" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L162" t="n">
         <v>349.1</v>
@@ -8541,7 +8563,7 @@
         <v>155</v>
       </c>
       <c r="K163" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L163" t="n">
         <v>349</v>
@@ -8592,7 +8614,7 @@
         <v>155</v>
       </c>
       <c r="K164" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L164" t="n">
         <v>348.8</v>
@@ -8643,7 +8665,7 @@
         <v>155</v>
       </c>
       <c r="K165" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L165" t="n">
         <v>348.6</v>
@@ -8745,7 +8767,7 @@
         <v>156</v>
       </c>
       <c r="K167" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L167" t="n">
         <v>348.4</v>
@@ -8847,7 +8869,7 @@
         <v>157</v>
       </c>
       <c r="K169" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>348.1</v>
@@ -8898,7 +8920,7 @@
         <v>158</v>
       </c>
       <c r="K170" t="n">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="L170" t="n">
         <v>348.2</v>
@@ -8949,7 +8971,7 @@
         <v>159</v>
       </c>
       <c r="K171" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>348.3</v>
@@ -9000,7 +9022,7 @@
         <v>160</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L172" t="n">
         <v>348.4</v>
@@ -9051,7 +9073,7 @@
         <v>161</v>
       </c>
       <c r="K173" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>348.4</v>
@@ -9102,7 +9124,7 @@
         <v>162</v>
       </c>
       <c r="K174" t="n">
-        <v>-9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L174" t="n">
         <v>348.5</v>
@@ -9153,7 +9175,7 @@
         <v>162</v>
       </c>
       <c r="K175" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>348.6</v>
@@ -9204,7 +9226,7 @@
         <v>162</v>
       </c>
       <c r="K176" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>348.6</v>
@@ -9255,7 +9277,7 @@
         <v>162</v>
       </c>
       <c r="K177" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L177" t="n">
         <v>348.6</v>
@@ -9306,7 +9328,7 @@
         <v>163</v>
       </c>
       <c r="K178" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>348.6</v>
@@ -9408,7 +9430,7 @@
         <v>165</v>
       </c>
       <c r="K180" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>348.8</v>
@@ -9459,7 +9481,7 @@
         <v>165</v>
       </c>
       <c r="K181" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L181" t="n">
         <v>349</v>
@@ -9510,7 +9532,7 @@
         <v>165</v>
       </c>
       <c r="K182" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L182" t="n">
         <v>349.1</v>
@@ -9561,7 +9583,7 @@
         <v>165</v>
       </c>
       <c r="K183" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>349.3</v>
@@ -9612,7 +9634,7 @@
         <v>166</v>
       </c>
       <c r="K184" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>349.3</v>
@@ -9663,7 +9685,7 @@
         <v>167</v>
       </c>
       <c r="K185" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L185" t="n">
         <v>349.4</v>
@@ -9714,7 +9736,7 @@
         <v>167</v>
       </c>
       <c r="K186" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L186" t="n">
         <v>349.5</v>
@@ -9765,7 +9787,7 @@
         <v>167</v>
       </c>
       <c r="K187" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L187" t="n">
         <v>349.6</v>
@@ -9816,7 +9838,7 @@
         <v>167</v>
       </c>
       <c r="K188" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>349.8</v>
@@ -9867,7 +9889,7 @@
         <v>167</v>
       </c>
       <c r="K189" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>349.9</v>
@@ -9918,7 +9940,7 @@
         <v>168</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>349.8</v>
@@ -9969,7 +9991,7 @@
         <v>168</v>
       </c>
       <c r="K191" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>349.7</v>
@@ -10020,7 +10042,7 @@
         <v>168</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>349.6</v>
@@ -10071,7 +10093,7 @@
         <v>169</v>
       </c>
       <c r="K193" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>349.6</v>
@@ -10122,7 +10144,7 @@
         <v>169</v>
       </c>
       <c r="K194" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>349.7</v>
@@ -10173,7 +10195,7 @@
         <v>169</v>
       </c>
       <c r="K195" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>349.7</v>
@@ -10224,7 +10246,7 @@
         <v>169</v>
       </c>
       <c r="K196" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>349.7</v>
@@ -10275,7 +10297,7 @@
         <v>170</v>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L197" t="n">
         <v>349.6</v>
@@ -10326,7 +10348,7 @@
         <v>171</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L198" t="n">
         <v>349.4</v>
@@ -10428,7 +10450,7 @@
         <v>172</v>
       </c>
       <c r="K200" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>349.3</v>
@@ -10479,7 +10501,7 @@
         <v>172</v>
       </c>
       <c r="K201" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>349.3</v>
@@ -10632,7 +10654,7 @@
         <v>174</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L204" t="n">
         <v>349.3</v>
@@ -10683,7 +10705,7 @@
         <v>175</v>
       </c>
       <c r="K205" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>349.1</v>
@@ -10734,7 +10756,7 @@
         <v>175</v>
       </c>
       <c r="K206" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L206" t="n">
         <v>348.9</v>
@@ -10785,7 +10807,7 @@
         <v>177</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>349</v>
@@ -10836,7 +10858,7 @@
         <v>178</v>
       </c>
       <c r="K208" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>349.1</v>
@@ -10887,7 +10909,7 @@
         <v>178</v>
       </c>
       <c r="K209" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>349.1</v>
@@ -10989,7 +11011,7 @@
         <v>178</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L211" t="n">
         <v>349.1</v>
@@ -11040,7 +11062,7 @@
         <v>178</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L212" t="n">
         <v>349</v>
@@ -11091,7 +11113,7 @@
         <v>178</v>
       </c>
       <c r="K213" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>348.9</v>
@@ -11142,7 +11164,7 @@
         <v>178</v>
       </c>
       <c r="K214" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>348.9</v>
@@ -11193,7 +11215,7 @@
         <v>178</v>
       </c>
       <c r="K215" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L215" t="n">
         <v>349</v>
@@ -11244,7 +11266,7 @@
         <v>178</v>
       </c>
       <c r="K216" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L216" t="n">
         <v>349.1</v>
@@ -11294,9 +11316,7 @@
       <c r="J217" t="n">
         <v>178</v>
       </c>
-      <c r="K217" t="n">
-        <v>0</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>349</v>
       </c>
@@ -11345,9 +11365,7 @@
       <c r="J218" t="n">
         <v>178</v>
       </c>
-      <c r="K218" t="n">
-        <v>14.28571428571428</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>349</v>
       </c>
@@ -11396,9 +11414,7 @@
       <c r="J219" t="n">
         <v>178</v>
       </c>
-      <c r="K219" t="n">
-        <v>0</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>349</v>
       </c>
@@ -11448,7 +11464,7 @@
         <v>179</v>
       </c>
       <c r="K220" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L220" t="n">
         <v>348.9</v>
@@ -11550,7 +11566,7 @@
         <v>181</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>349</v>
@@ -11601,7 +11617,7 @@
         <v>181</v>
       </c>
       <c r="K223" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L223" t="n">
         <v>349.1</v>
@@ -11652,7 +11668,7 @@
         <v>183</v>
       </c>
       <c r="K224" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L224" t="n">
         <v>349</v>
@@ -11703,7 +11719,7 @@
         <v>184</v>
       </c>
       <c r="K225" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>349</v>
@@ -11754,7 +11770,7 @@
         <v>184</v>
       </c>
       <c r="K226" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>349</v>
@@ -11805,7 +11821,7 @@
         <v>185</v>
       </c>
       <c r="K227" t="n">
-        <v>-25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L227" t="n">
         <v>348.9</v>
@@ -11907,7 +11923,7 @@
         <v>186</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L229" t="n">
         <v>348.9</v>
@@ -11958,7 +11974,7 @@
         <v>188</v>
       </c>
       <c r="K230" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L230" t="n">
         <v>348.8</v>
@@ -12009,7 +12025,7 @@
         <v>190</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L231" t="n">
         <v>348.8</v>
@@ -12060,7 +12076,7 @@
         <v>190</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L232" t="n">
         <v>348.7</v>
@@ -12111,7 +12127,7 @@
         <v>190</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L233" t="n">
         <v>348.6</v>
@@ -12213,7 +12229,7 @@
         <v>191</v>
       </c>
       <c r="K235" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L235" t="n">
         <v>348.6</v>
@@ -12315,7 +12331,7 @@
         <v>192</v>
       </c>
       <c r="K237" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L237" t="n">
         <v>348.3</v>
@@ -12366,7 +12382,7 @@
         <v>192</v>
       </c>
       <c r="K238" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L238" t="n">
         <v>348.1</v>
@@ -12468,7 +12484,7 @@
         <v>197</v>
       </c>
       <c r="K240" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L240" t="n">
         <v>348.1</v>
@@ -12519,7 +12535,7 @@
         <v>200</v>
       </c>
       <c r="K241" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L241" t="n">
         <v>348.5</v>
@@ -12570,7 +12586,7 @@
         <v>200</v>
       </c>
       <c r="K242" t="n">
-        <v>15.78947368421053</v>
+        <v>40</v>
       </c>
       <c r="L242" t="n">
         <v>348.9</v>
@@ -12621,7 +12637,7 @@
         <v>200</v>
       </c>
       <c r="K243" t="n">
-        <v>15.78947368421053</v>
+        <v>40</v>
       </c>
       <c r="L243" t="n">
         <v>349.3</v>
@@ -12672,7 +12688,7 @@
         <v>201</v>
       </c>
       <c r="K244" t="n">
-        <v>22.22222222222222</v>
+        <v>40</v>
       </c>
       <c r="L244" t="n">
         <v>349.6</v>
@@ -12723,7 +12739,7 @@
         <v>201</v>
       </c>
       <c r="K245" t="n">
-        <v>17.64705882352941</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L245" t="n">
         <v>350</v>
@@ -12774,7 +12790,7 @@
         <v>202</v>
       </c>
       <c r="K246" t="n">
-        <v>11.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="L246" t="n">
         <v>350.4</v>
@@ -12825,7 +12841,7 @@
         <v>203</v>
       </c>
       <c r="K247" t="n">
-        <v>11.11111111111111</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L247" t="n">
         <v>350.7</v>
@@ -12876,7 +12892,7 @@
         <v>203</v>
       </c>
       <c r="K248" t="n">
-        <v>5.88235294117647</v>
+        <v>40</v>
       </c>
       <c r="L248" t="n">
         <v>351</v>
@@ -12927,7 +12943,7 @@
         <v>204</v>
       </c>
       <c r="K249" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L249" t="n">
         <v>351.5</v>
@@ -12978,7 +12994,7 @@
         <v>204</v>
       </c>
       <c r="K250" t="n">
-        <v>25</v>
+        <v>-50</v>
       </c>
       <c r="L250" t="n">
         <v>351.6</v>
@@ -13029,7 +13045,7 @@
         <v>207</v>
       </c>
       <c r="K251" t="n">
-        <v>29.41176470588236</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L251" t="n">
         <v>351.7</v>
@@ -13080,7 +13096,7 @@
         <v>210</v>
       </c>
       <c r="K252" t="n">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="L252" t="n">
         <v>351.5</v>
@@ -13131,7 +13147,7 @@
         <v>210</v>
       </c>
       <c r="K253" t="n">
-        <v>10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L253" t="n">
         <v>351.3</v>
@@ -13182,7 +13198,7 @@
         <v>212</v>
       </c>
       <c r="K254" t="n">
-        <v>18.18181818181818</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L254" t="n">
         <v>351.4</v>
@@ -13284,7 +13300,7 @@
         <v>214</v>
       </c>
       <c r="K256" t="n">
-        <v>36.36363636363637</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L256" t="n">
         <v>352</v>
@@ -13335,7 +13351,7 @@
         <v>214</v>
       </c>
       <c r="K257" t="n">
-        <v>36.36363636363637</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L257" t="n">
         <v>352.5</v>
@@ -13386,7 +13402,7 @@
         <v>214</v>
       </c>
       <c r="K258" t="n">
-        <v>36.36363636363637</v>
+        <v>40</v>
       </c>
       <c r="L258" t="n">
         <v>353</v>
@@ -13437,7 +13453,7 @@
         <v>214</v>
       </c>
       <c r="K259" t="n">
-        <v>42.85714285714285</v>
+        <v>40</v>
       </c>
       <c r="L259" t="n">
         <v>353.4</v>
@@ -13488,7 +13504,7 @@
         <v>214</v>
       </c>
       <c r="K260" t="n">
-        <v>29.41176470588236</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L260" t="n">
         <v>353.8</v>
@@ -13539,7 +13555,7 @@
         <v>215</v>
       </c>
       <c r="K261" t="n">
-        <v>6.666666666666667</v>
+        <v>60</v>
       </c>
       <c r="L261" t="n">
         <v>353.8</v>
@@ -13590,7 +13606,7 @@
         <v>216</v>
       </c>
       <c r="K262" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L262" t="n">
         <v>354</v>
@@ -13692,7 +13708,7 @@
         <v>216</v>
       </c>
       <c r="K264" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>354.2</v>
@@ -13743,7 +13759,7 @@
         <v>218</v>
       </c>
       <c r="K265" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>354.3</v>
@@ -13794,7 +13810,7 @@
         <v>218</v>
       </c>
       <c r="K266" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>354.3</v>
@@ -13845,7 +13861,7 @@
         <v>219</v>
       </c>
       <c r="K267" t="n">
-        <v>37.5</v>
+        <v>20</v>
       </c>
       <c r="L267" t="n">
         <v>354.4</v>
@@ -13896,7 +13912,7 @@
         <v>220</v>
       </c>
       <c r="K268" t="n">
-        <v>41.17647058823529</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L268" t="n">
         <v>354.6</v>
@@ -13947,7 +13963,7 @@
         <v>220</v>
       </c>
       <c r="K269" t="n">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L269" t="n">
         <v>354.8</v>
@@ -13998,7 +14014,7 @@
         <v>221</v>
       </c>
       <c r="K270" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L270" t="n">
         <v>354.9</v>
@@ -14049,7 +14065,7 @@
         <v>221</v>
       </c>
       <c r="K271" t="n">
-        <v>14.28571428571428</v>
+        <v>60</v>
       </c>
       <c r="L271" t="n">
         <v>355.1</v>
@@ -14100,7 +14116,7 @@
         <v>223</v>
       </c>
       <c r="K272" t="n">
-        <v>53.84615384615385</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L272" t="n">
         <v>355.6</v>
@@ -14151,7 +14167,7 @@
         <v>224</v>
       </c>
       <c r="K273" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="L273" t="n">
         <v>356</v>
@@ -14253,7 +14269,7 @@
         <v>225</v>
       </c>
       <c r="K275" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L275" t="n">
         <v>356.5</v>
@@ -14304,7 +14320,7 @@
         <v>226</v>
       </c>
       <c r="K276" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L276" t="n">
         <v>356.5</v>
@@ -14355,7 +14371,7 @@
         <v>227</v>
       </c>
       <c r="K277" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L277" t="n">
         <v>356.5</v>
@@ -14406,7 +14422,7 @@
         <v>228</v>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L278" t="n">
         <v>356.3</v>
@@ -14457,7 +14473,7 @@
         <v>230</v>
       </c>
       <c r="K279" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L279" t="n">
         <v>356.3</v>
@@ -14508,7 +14524,7 @@
         <v>231</v>
       </c>
       <c r="K280" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>356.3</v>
@@ -14559,7 +14575,7 @@
         <v>233</v>
       </c>
       <c r="K281" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>356.5</v>
@@ -14610,7 +14626,7 @@
         <v>233</v>
       </c>
       <c r="K282" t="n">
-        <v>29.41176470588236</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L282" t="n">
         <v>356.5</v>
@@ -14661,7 +14677,7 @@
         <v>235</v>
       </c>
       <c r="K283" t="n">
-        <v>15.78947368421053</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L283" t="n">
         <v>356.4</v>
@@ -14712,7 +14728,7 @@
         <v>237</v>
       </c>
       <c r="K284" t="n">
-        <v>23.80952380952381</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L284" t="n">
         <v>356.5</v>
@@ -14763,7 +14779,7 @@
         <v>237</v>
       </c>
       <c r="K285" t="n">
-        <v>15.78947368421053</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L285" t="n">
         <v>356.7</v>
@@ -14814,7 +14830,7 @@
         <v>237</v>
       </c>
       <c r="K286" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L286" t="n">
         <v>357</v>
@@ -14865,7 +14881,7 @@
         <v>237</v>
       </c>
       <c r="K287" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L287" t="n">
         <v>357.2</v>
@@ -14916,7 +14932,7 @@
         <v>238</v>
       </c>
       <c r="K288" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L288" t="n">
         <v>357.6</v>
@@ -14967,7 +14983,7 @@
         <v>239</v>
       </c>
       <c r="K289" t="n">
-        <v>5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L289" t="n">
         <v>357.7</v>
@@ -15018,7 +15034,7 @@
         <v>239</v>
       </c>
       <c r="K290" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>357.9</v>
@@ -15069,7 +15085,7 @@
         <v>240</v>
       </c>
       <c r="K291" t="n">
-        <v>15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L291" t="n">
         <v>358</v>
@@ -15120,7 +15136,7 @@
         <v>240</v>
       </c>
       <c r="K292" t="n">
-        <v>5.88235294117647</v>
+        <v>60</v>
       </c>
       <c r="L292" t="n">
         <v>358.1</v>
@@ -15171,7 +15187,7 @@
         <v>240</v>
       </c>
       <c r="K293" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L293" t="n">
         <v>358.4</v>
@@ -15222,7 +15238,7 @@
         <v>240</v>
       </c>
       <c r="K294" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L294" t="n">
         <v>358.5</v>
@@ -15273,7 +15289,7 @@
         <v>240</v>
       </c>
       <c r="K295" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L295" t="n">
         <v>358.6</v>
@@ -15324,7 +15340,7 @@
         <v>242</v>
       </c>
       <c r="K296" t="n">
-        <v>37.5</v>
+        <v>60</v>
       </c>
       <c r="L296" t="n">
         <v>358.9</v>
@@ -15375,7 +15391,7 @@
         <v>243</v>
       </c>
       <c r="K297" t="n">
-        <v>37.5</v>
+        <v>60</v>
       </c>
       <c r="L297" t="n">
         <v>359.3</v>
@@ -15426,7 +15442,7 @@
         <v>243</v>
       </c>
       <c r="K298" t="n">
-        <v>46.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L298" t="n">
         <v>359.6</v>
@@ -15477,7 +15493,7 @@
         <v>244</v>
       </c>
       <c r="K299" t="n">
-        <v>28.57142857142857</v>
+        <v>60</v>
       </c>
       <c r="L299" t="n">
         <v>359.9</v>
@@ -15528,7 +15544,7 @@
         <v>244</v>
       </c>
       <c r="K300" t="n">
-        <v>38.46153846153847</v>
+        <v>50</v>
       </c>
       <c r="L300" t="n">
         <v>360.2</v>
@@ -15579,7 +15595,7 @@
         <v>244</v>
       </c>
       <c r="K301" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L301" t="n">
         <v>360.4</v>
@@ -15630,7 +15646,7 @@
         <v>245</v>
       </c>
       <c r="K302" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L302" t="n">
         <v>360.7</v>
@@ -15732,7 +15748,7 @@
         <v>245</v>
       </c>
       <c r="K304" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L304" t="n">
         <v>361.3</v>

--- a/BackTest/2019-10-21 BackTest MTL.xlsx
+++ b/BackTest/2019-10-21 BackTest MTL.xlsx
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -5876,13 +5876,17 @@
         <v>354.1333333333333</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>350</v>
+      </c>
+      <c r="K157" t="n">
+        <v>350</v>
+      </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
@@ -5917,8 +5921,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>350</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5952,8 +5962,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>350</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6471,13 +6487,17 @@
         <v>351.45</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>348</v>
+      </c>
+      <c r="K174" t="n">
+        <v>348</v>
+      </c>
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
@@ -6506,14 +6526,22 @@
         <v>351.3333333333333</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>349</v>
+      </c>
+      <c r="K175" t="n">
+        <v>348</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6541,14 +6569,22 @@
         <v>351.2166666666666</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>349</v>
+      </c>
+      <c r="K176" t="n">
+        <v>348</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6582,8 +6618,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>348</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6611,14 +6653,22 @@
         <v>351</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>349</v>
+      </c>
+      <c r="K178" t="n">
+        <v>348</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +6702,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>348</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6681,18 +6737,20 @@
         <v>350.75</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>350</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>350</v>
-      </c>
-      <c r="L180" t="inlineStr"/>
+        <v>348</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6727,11 +6785,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -6768,11 +6826,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M182" t="n">
@@ -6808,8 +6866,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>348</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6843,8 +6907,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>348</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6878,8 +6948,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>348</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6913,8 +6989,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>348</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6948,8 +7030,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>348</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6983,8 +7071,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>348</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7018,8 +7112,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>348</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7053,8 +7153,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>348</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7088,8 +7194,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>348</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7123,8 +7235,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>348</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7158,8 +7276,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>348</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7193,8 +7317,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>348</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7228,8 +7358,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>348</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7263,8 +7399,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>348</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7298,8 +7440,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>348</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7333,8 +7481,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>348</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7368,8 +7522,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>348</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7403,8 +7563,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>348</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7438,8 +7604,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>348</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7473,8 +7645,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>348</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7508,8 +7686,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>348</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7543,8 +7727,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>348</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7578,8 +7768,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>348</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7613,8 +7809,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>348</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +7850,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>348</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7677,18 +7885,20 @@
         <v>349.1666666666667</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>349</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>349</v>
-      </c>
-      <c r="L208" t="inlineStr"/>
+        <v>348</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7723,11 +7933,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -7764,11 +7974,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M210" t="n">
@@ -7804,8 +8014,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>348</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7833,18 +8049,18 @@
         <v>349.1</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>349</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>348</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M212" t="n">
@@ -7874,15 +8090,15 @@
         <v>349.1</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>349</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>348</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7915,15 +8131,15 @@
         <v>349.0833333333333</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>349</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>348</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7956,15 +8172,15 @@
         <v>349.0666666666667</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>349</v>
-      </c>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>348</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7997,15 +8213,15 @@
         <v>349.05</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>349</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>348</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8038,15 +8254,15 @@
         <v>349.0333333333334</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>349</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>348</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8079,15 +8295,15 @@
         <v>349.0166666666667</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>349</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>348</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8120,15 +8336,15 @@
         <v>349.0166666666667</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>349</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>348</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8161,15 +8377,15 @@
         <v>349.0166666666667</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>349</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>348</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8202,15 +8418,15 @@
         <v>349.05</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>349</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>348</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8243,15 +8459,15 @@
         <v>349.0833333333333</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>350</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>348</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8284,15 +8500,15 @@
         <v>349.1166666666667</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>348</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>348</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8325,15 +8541,15 @@
         <v>349.1166666666667</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>348</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>348</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8366,15 +8582,15 @@
         <v>349.1333333333333</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>349</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>348</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8407,15 +8623,15 @@
         <v>349.1333333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>349</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>348</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8448,15 +8664,15 @@
         <v>349.1166666666667</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>348</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>348</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8489,15 +8705,15 @@
         <v>349.1333333333333</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>349</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>348</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8530,15 +8746,15 @@
         <v>349.15</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>349</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>348</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,15 +8787,15 @@
         <v>349.1166666666667</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>347</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>348</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8612,15 +8828,15 @@
         <v>349.1333333333333</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>349</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>348</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8653,15 +8869,15 @@
         <v>349.1333333333333</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>349</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>348</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8694,15 +8910,15 @@
         <v>349.15</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>349</v>
-      </c>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>348</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8735,15 +8951,15 @@
         <v>349.15</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>349</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>348</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8776,15 +8992,15 @@
         <v>349.1333333333333</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>348</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>348</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8817,15 +9033,15 @@
         <v>349.1</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>348</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>348</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8858,15 +9074,15 @@
         <v>349.0666666666667</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>347</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>348</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8899,15 +9115,15 @@
         <v>349.05</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>347</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>348</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8940,15 +9156,15 @@
         <v>349</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>347</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>348</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8981,15 +9197,15 @@
         <v>349</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>349</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>348</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9022,15 +9238,15 @@
         <v>349.05</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>350</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>348</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9063,15 +9279,15 @@
         <v>349.1</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>353</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>348</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9110,7 +9326,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>348</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9146,17 +9364,19 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>348</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>1</v>
+        <v>1.006494252873563</v>
       </c>
     </row>
     <row r="245">
@@ -9185,15 +9405,11 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9228,11 +9444,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9267,11 +9479,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9306,11 +9514,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9345,11 +9549,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9384,11 +9584,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9423,11 +9619,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9462,11 +9654,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9501,11 +9689,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9540,11 +9724,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9579,11 +9759,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9618,11 +9794,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9657,11 +9829,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9692,15 +9860,11 @@
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9731,15 +9895,11 @@
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9770,15 +9930,11 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9813,11 +9969,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9852,11 +10004,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9891,11 +10039,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9930,11 +10074,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9969,11 +10109,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10008,11 +10144,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10047,11 +10179,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10086,11 +10214,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10125,11 +10249,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10160,15 +10280,11 @@
         <v>0</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10199,15 +10315,11 @@
         <v>0</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10242,12 +10354,10 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10275,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
@@ -10345,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
@@ -10380,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
@@ -10415,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
@@ -10450,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
@@ -10485,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
@@ -10520,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
@@ -10555,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
@@ -10590,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>

--- a/BackTest/2019-10-21 BackTest MTL.xlsx
+++ b/BackTest/2019-10-21 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>44229.72287551001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>44229.72287551001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>44230.72287551001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>44092.52987551001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>44092.52987551001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>56427.18397551001</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>83271.76327551001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>81402.99947551001</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>82230.18697551001</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>81825.18707551001</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>78881.17307551001</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>78881.17307551001</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>78881.17307551001</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>82666.46447551002</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>82800.07957551001</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>80603.19187551001</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>80558.06577551001</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>80558.06577551001</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>79723.72437551001</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>72899.53655667997</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>73076.28125667997</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>70657.34084342998</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>70657.34084342998</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>70658.34084342998</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>70658.34084342998</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>71285.18534342998</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>69824.54654342998</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>69825.54654342998</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>64225.54654342998</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>61007.75714342998</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>59802.13544342998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>60544.22314342998</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>60527.53304342998</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>61147.09104342997</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>58131.03644342997</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>58131.03644342997</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>66411.74807675996</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>66412.74807675996</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>66412.74807675996</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>49931.11637675996</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>49932.11637675996</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>49931.11637675996</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>49929.11637675996</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>50017.50867675996</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>50017.50867675996</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>50017.50867675996</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>50018.50867675996</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>49780.05877675996</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>49173.58797675996</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>49174.58797675996</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>49174.58797675996</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>49174.58797675996</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>49020.58797675996</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>49020.58797675996</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>60359.73267675996</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>59950.10977675996</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>59486.06277675996</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>59461.06277675996</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>59554.71957675996</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>59554.71957675996</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>59554.71957675996</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>59554.71957675996</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>56533.60087675996</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>56533.60087675996</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>51618.08927675996</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>56933.53257675996</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>52180.65827675995</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>52181.65827675995</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>52181.65827675995</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>57651.59417675996</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>39180.85057675996</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>39180.85057675996</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>39180.85057675996</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>39181.85057675996</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>39181.85057675996</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>28875.97817675996</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>28875.97817675996</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>28875.97817675996</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>28876.64667675996</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>28876.64667675996</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>28876.64667675996</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>34333.23517675995</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>34333.23517675995</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>34333.23517675995</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>33914.61127675996</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>43846.30297675995</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>43846.30297675995</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>43846.30297675995</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>43647.05297675995</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>43647.05297675995</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>13136.82447675995</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7942,10 +7942,14 @@
         <v>-39419.13021064005</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>348</v>
+      </c>
+      <c r="J229" t="n">
+        <v>348</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
@@ -7975,11 +7979,19 @@
         <v>-39777.30771064005</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>349</v>
+      </c>
+      <c r="J230" t="n">
+        <v>348</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8020,19 @@
         <v>-39569.43261064005</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>348</v>
+      </c>
+      <c r="J231" t="n">
+        <v>348</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +8064,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>348</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +8103,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>348</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +8142,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>348</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +8181,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>348</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +8220,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>348</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8259,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>348</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +8298,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>348</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8334,19 @@
         <v>-44691.09481064005</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>349</v>
+      </c>
+      <c r="J239" t="n">
+        <v>348</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +8378,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>348</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +8417,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>348</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +8456,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>348</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8495,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>348</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +8534,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>348</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +8573,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>348</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8612,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>348</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8651,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>348</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +8690,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>348</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8729,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>348</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +8768,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>348</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +8807,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>348</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +8846,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>348</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +8885,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>348</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +8924,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>348</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +8963,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>348</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9002,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>348</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9041,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>348</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9080,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>348</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9119,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>348</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9158,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>348</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9197,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>348</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9236,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>348</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9275,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>348</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9314,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>348</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9353,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>348</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +9392,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>348</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +9431,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>348</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +9470,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>348</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +9509,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>348</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +9548,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>348</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9331,8 +9587,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>348</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +9626,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>348</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +9665,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>348</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +9704,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>348</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +9743,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>348</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9779,19 @@
         <v>-48332.16331064005</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>349</v>
+      </c>
+      <c r="J276" t="n">
+        <v>348</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9820,19 @@
         <v>-48332.16331064005</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>349</v>
+      </c>
+      <c r="J277" t="n">
+        <v>348</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9861,19 @@
         <v>-48332.16331064005</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>349</v>
+      </c>
+      <c r="J278" t="n">
+        <v>348</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +9905,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>348</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9941,19 @@
         <v>-48536.26791064005</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>348</v>
+      </c>
+      <c r="J280" t="n">
+        <v>348</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9982,19 @@
         <v>-46846.63941064005</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>349</v>
+      </c>
+      <c r="J281" t="n">
+        <v>348</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +10023,19 @@
         <v>-46846.63941064005</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>350</v>
+      </c>
+      <c r="J282" t="n">
+        <v>348</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +10067,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>348</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +10103,19 @@
         <v>-49567.18711064005</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>348</v>
+      </c>
+      <c r="J284" t="n">
+        <v>348</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +10144,19 @@
         <v>-49567.18711064005</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>349</v>
+      </c>
+      <c r="J285" t="n">
+        <v>348</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10185,19 @@
         <v>-50414.29031064005</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>349</v>
+      </c>
+      <c r="J286" t="n">
+        <v>348</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,7 +10226,7 @@
         <v>-49139.20131064005</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>348</v>
@@ -9864,7 +10234,11 @@
       <c r="J287" t="n">
         <v>348</v>
       </c>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10267,7 @@
         <v>-49139.20131064005</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>349</v>
@@ -9903,7 +10277,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L288" t="n">
@@ -9934,15 +10308,17 @@
         <v>-49215.10891064005</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>349</v>
+      </c>
       <c r="J289" t="n">
         <v>348</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L289" t="n">
@@ -9973,15 +10349,19 @@
         <v>-49214.10891064005</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>347</v>
       </c>
       <c r="J290" t="n">
-        <v>347</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
+        <v>348</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10010,15 +10390,17 @@
         <v>-49214.10891064005</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>349</v>
+      </c>
       <c r="J291" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L291" t="n">
@@ -10049,15 +10431,17 @@
         <v>-49214.10891064005</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>349</v>
+      </c>
       <c r="J292" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L292" t="n">
@@ -10088,11 +10472,19 @@
         <v>-49214.10891064005</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>349</v>
+      </c>
+      <c r="J293" t="n">
+        <v>348</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10121,11 +10513,19 @@
         <v>-49795.28701064004</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>349</v>
+      </c>
+      <c r="J294" t="n">
+        <v>348</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10154,11 +10554,19 @@
         <v>-50616.15761064005</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>348</v>
+      </c>
+      <c r="J295" t="n">
+        <v>348</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10187,11 +10595,19 @@
         <v>-50616.15761064005</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>347</v>
+      </c>
+      <c r="J296" t="n">
+        <v>348</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10220,15 +10636,19 @@
         <v>-50616.15761064005</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>347</v>
       </c>
       <c r="J297" t="n">
-        <v>347</v>
-      </c>
-      <c r="K297" t="inlineStr"/>
+        <v>348</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10257,17 +10677,17 @@
         <v>-53965.15761064005</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>347</v>
       </c>
       <c r="J298" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L298" t="n">
@@ -10298,13 +10718,13 @@
         <v>-44305.15761064005</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>346</v>
       </c>
       <c r="J299" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10339,13 +10759,13 @@
         <v>-44258.82101064004</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>350</v>
       </c>
       <c r="J300" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10380,13 +10800,13 @@
         <v>-44258.82101064004</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>353</v>
       </c>
       <c r="J301" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10425,7 +10845,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10460,11 +10880,13 @@
         <v>-44501.88631064005</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>353</v>
+      </c>
       <c r="J303" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10503,7 +10925,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10542,7 +10964,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10581,7 +11003,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10616,11 +11038,13 @@
         <v>-45111.97831064004</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>350</v>
+      </c>
       <c r="J307" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10655,11 +11079,13 @@
         <v>-42217.29701064005</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>350</v>
+      </c>
       <c r="J308" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10694,13 +11120,13 @@
         <v>-42217.29701064005</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>351</v>
       </c>
       <c r="J309" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10735,11 +11161,13 @@
         <v>-42091.41921064004</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>351</v>
+      </c>
       <c r="J310" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10778,7 +11206,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10813,11 +11241,13 @@
         <v>-42104.49061064004</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>351</v>
+      </c>
       <c r="J312" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10852,11 +11282,13 @@
         <v>-41001.35081064005</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>351</v>
+      </c>
       <c r="J313" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -10891,11 +11323,13 @@
         <v>-40972.72621064004</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>353</v>
+      </c>
       <c r="J314" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -10934,7 +11368,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -10973,7 +11407,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11012,7 +11446,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11051,7 +11485,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11090,7 +11524,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11129,7 +11563,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11168,7 +11602,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11207,7 +11641,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11246,7 +11680,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11285,7 +11719,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11324,7 +11758,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11363,7 +11797,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11402,7 +11836,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11441,7 +11875,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11480,7 +11914,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11519,7 +11953,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11558,7 +11992,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11597,7 +12031,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11636,7 +12070,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11675,7 +12109,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11714,7 +12148,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11753,7 +12187,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11792,7 +12226,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11831,7 +12265,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11870,7 +12304,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -11909,7 +12343,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -11948,7 +12382,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -11987,7 +12421,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12026,7 +12460,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12065,7 +12499,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12104,7 +12538,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12143,7 +12577,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12182,7 +12616,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12221,7 +12655,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12260,7 +12694,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12299,7 +12733,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12338,7 +12772,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12377,7 +12811,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12390,6 +12824,6 @@
       <c r="M352" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest MTL.xlsx
+++ b/BackTest/2019-10-21 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>44229.72287551001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>44229.72287551001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>44230.72287551001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>44092.52987551001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>44092.52987551001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>73076.28125667997</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>73078.41485667997</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>70657.34084342998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>70657.34084342998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>70658.34084342998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>70658.34084342998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>61007.75714342998</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>60527.53304342998</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>61147.09104342997</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>58131.03644342997</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>58131.03644342997</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>66411.74807675996</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>66412.74807675996</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>66412.74807675996</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>49931.11637675996</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>49932.11637675996</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>49931.11637675996</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>49929.11637675996</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>50017.50867675996</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>50017.50867675996</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>50017.50867675996</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>50018.50867675996</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>49780.05877675996</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>49173.58797675996</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>49174.58797675996</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>49174.58797675996</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>49174.58797675996</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>49020.58797675996</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>49020.58797675996</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>60359.73267675996</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>59950.10977675996</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>59486.06277675996</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>59461.06277675996</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>59554.71957675996</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>59554.71957675996</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>59554.71957675996</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>59554.71957675996</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>56533.60087675996</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>56533.60087675996</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>51618.08927675996</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>56933.53257675996</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>52180.65827675995</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>52181.65827675995</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>52181.65827675995</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>57651.59417675996</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>39180.85057675996</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>39180.85057675996</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>39180.85057675996</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>39181.85057675996</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>39181.85057675996</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>28875.97817675996</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>28875.97817675996</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>28875.97817675996</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>28876.64667675996</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>28876.64667675996</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>28876.64667675996</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>34333.23517675995</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>34333.23517675995</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>34333.23517675995</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>33914.61127675996</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>43846.30297675995</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>13136.82447675995</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7942,14 +7942,10 @@
         <v>-39419.13021064005</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>348</v>
-      </c>
-      <c r="J229" t="n">
-        <v>348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
@@ -7979,2717 +7975,2275 @@
         <v>-39777.30771064005</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>349</v>
-      </c>
-      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
         <v>348</v>
       </c>
-      <c r="K230" t="inlineStr">
+      <c r="C231" t="n">
+        <v>349</v>
+      </c>
+      <c r="D231" t="n">
+        <v>349</v>
+      </c>
+      <c r="E231" t="n">
+        <v>348</v>
+      </c>
+      <c r="F231" t="n">
+        <v>207.8751</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-39569.43261064005</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>348</v>
+      </c>
+      <c r="C232" t="n">
+        <v>348</v>
+      </c>
+      <c r="D232" t="n">
+        <v>348</v>
+      </c>
+      <c r="E232" t="n">
+        <v>348</v>
+      </c>
+      <c r="F232" t="n">
+        <v>4755.9727</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-44325.40531064005</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>349</v>
+      </c>
+      <c r="C233" t="n">
+        <v>349</v>
+      </c>
+      <c r="D233" t="n">
+        <v>349</v>
+      </c>
+      <c r="E233" t="n">
+        <v>349</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-44324.40531064005</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>348</v>
+      </c>
+      <c r="C234" t="n">
+        <v>349</v>
+      </c>
+      <c r="D234" t="n">
+        <v>349</v>
+      </c>
+      <c r="E234" t="n">
+        <v>348</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1231.787</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-44324.40531064005</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>349</v>
+      </c>
+      <c r="C235" t="n">
+        <v>349</v>
+      </c>
+      <c r="D235" t="n">
+        <v>349</v>
+      </c>
+      <c r="E235" t="n">
+        <v>349</v>
+      </c>
+      <c r="F235" t="n">
+        <v>4375.4019</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-44324.40531064005</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>349</v>
+      </c>
+      <c r="C236" t="n">
+        <v>349</v>
+      </c>
+      <c r="D236" t="n">
+        <v>349</v>
+      </c>
+      <c r="E236" t="n">
+        <v>349</v>
+      </c>
+      <c r="F236" t="n">
+        <v>359.5322</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-44324.40531064005</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>348</v>
+      </c>
+      <c r="C237" t="n">
+        <v>348</v>
+      </c>
+      <c r="D237" t="n">
+        <v>348</v>
+      </c>
+      <c r="E237" t="n">
+        <v>348</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1556.5285</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-45880.93381064005</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>349</v>
+      </c>
+      <c r="C238" t="n">
+        <v>349</v>
+      </c>
+      <c r="D238" t="n">
+        <v>349</v>
+      </c>
+      <c r="E238" t="n">
+        <v>349</v>
+      </c>
+      <c r="F238" t="n">
+        <v>839.734</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-45041.19981064005</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>350</v>
+      </c>
+      <c r="C239" t="n">
+        <v>350</v>
+      </c>
+      <c r="D239" t="n">
+        <v>350</v>
+      </c>
+      <c r="E239" t="n">
+        <v>350</v>
+      </c>
+      <c r="F239" t="n">
+        <v>350.105</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-44691.09481064005</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>350</v>
+      </c>
+      <c r="C240" t="n">
+        <v>350</v>
+      </c>
+      <c r="D240" t="n">
+        <v>350</v>
+      </c>
+      <c r="E240" t="n">
+        <v>350</v>
+      </c>
+      <c r="F240" t="n">
+        <v>104.28</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-44691.09481064005</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>350</v>
+      </c>
+      <c r="C241" t="n">
+        <v>350</v>
+      </c>
+      <c r="D241" t="n">
+        <v>350</v>
+      </c>
+      <c r="E241" t="n">
+        <v>350</v>
+      </c>
+      <c r="F241" t="n">
+        <v>127.5982</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-44691.09481064005</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>350</v>
+      </c>
+      <c r="C242" t="n">
+        <v>350</v>
+      </c>
+      <c r="D242" t="n">
+        <v>350</v>
+      </c>
+      <c r="E242" t="n">
+        <v>350</v>
+      </c>
+      <c r="F242" t="n">
+        <v>4360.2756</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-44691.09481064005</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>349</v>
+      </c>
+      <c r="C243" t="n">
+        <v>349</v>
+      </c>
+      <c r="D243" t="n">
+        <v>349</v>
+      </c>
+      <c r="E243" t="n">
+        <v>349</v>
+      </c>
+      <c r="F243" t="n">
+        <v>301</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-44992.09481064005</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>350</v>
+      </c>
+      <c r="C244" t="n">
+        <v>350</v>
+      </c>
+      <c r="D244" t="n">
+        <v>350</v>
+      </c>
+      <c r="E244" t="n">
+        <v>350</v>
+      </c>
+      <c r="F244" t="n">
+        <v>15338.8525</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-29653.24231064005</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>350</v>
+      </c>
+      <c r="C245" t="n">
+        <v>350</v>
+      </c>
+      <c r="D245" t="n">
+        <v>350</v>
+      </c>
+      <c r="E245" t="n">
+        <v>350</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1000.1971</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-29653.24231064005</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>350</v>
+      </c>
+      <c r="C246" t="n">
+        <v>350</v>
+      </c>
+      <c r="D246" t="n">
+        <v>350</v>
+      </c>
+      <c r="E246" t="n">
+        <v>350</v>
+      </c>
+      <c r="F246" t="n">
+        <v>4602.8721</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-29653.24231064005</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>350</v>
+      </c>
+      <c r="C247" t="n">
+        <v>350</v>
+      </c>
+      <c r="D247" t="n">
+        <v>350</v>
+      </c>
+      <c r="E247" t="n">
+        <v>350</v>
+      </c>
+      <c r="F247" t="n">
+        <v>53.6599</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-29653.24231064005</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>350</v>
+      </c>
+      <c r="C248" t="n">
+        <v>350</v>
+      </c>
+      <c r="D248" t="n">
+        <v>350</v>
+      </c>
+      <c r="E248" t="n">
+        <v>350</v>
+      </c>
+      <c r="F248" t="n">
+        <v>316.1664</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-29653.24231064005</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>350</v>
+      </c>
+      <c r="C249" t="n">
+        <v>349</v>
+      </c>
+      <c r="D249" t="n">
+        <v>350</v>
+      </c>
+      <c r="E249" t="n">
+        <v>349</v>
+      </c>
+      <c r="F249" t="n">
+        <v>6054.6884</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-35707.93071064004</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>349</v>
+      </c>
+      <c r="C250" t="n">
+        <v>349</v>
+      </c>
+      <c r="D250" t="n">
+        <v>349</v>
+      </c>
+      <c r="E250" t="n">
+        <v>349</v>
+      </c>
+      <c r="F250" t="n">
+        <v>5087.0839</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-35707.93071064004</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>349</v>
+      </c>
+      <c r="C251" t="n">
+        <v>349</v>
+      </c>
+      <c r="D251" t="n">
+        <v>349</v>
+      </c>
+      <c r="E251" t="n">
+        <v>349</v>
+      </c>
+      <c r="F251" t="n">
+        <v>926.3321999999999</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-35707.93071064004</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>350</v>
+      </c>
+      <c r="C252" t="n">
+        <v>350</v>
+      </c>
+      <c r="D252" t="n">
+        <v>350</v>
+      </c>
+      <c r="E252" t="n">
+        <v>350</v>
+      </c>
+      <c r="F252" t="n">
+        <v>10</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-35697.93071064004</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>350</v>
+      </c>
+      <c r="C253" t="n">
+        <v>350</v>
+      </c>
+      <c r="D253" t="n">
+        <v>350</v>
+      </c>
+      <c r="E253" t="n">
+        <v>350</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1071.4661</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-35697.93071064004</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>350</v>
+      </c>
+      <c r="C254" t="n">
+        <v>350</v>
+      </c>
+      <c r="D254" t="n">
+        <v>350</v>
+      </c>
+      <c r="E254" t="n">
+        <v>350</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1131.5528</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-35697.93071064004</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>350</v>
+      </c>
+      <c r="C255" t="n">
+        <v>350</v>
+      </c>
+      <c r="D255" t="n">
+        <v>350</v>
+      </c>
+      <c r="E255" t="n">
+        <v>350</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1555.7314</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-35697.93071064004</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>349</v>
+      </c>
+      <c r="C256" t="n">
+        <v>349</v>
+      </c>
+      <c r="D256" t="n">
+        <v>349</v>
+      </c>
+      <c r="E256" t="n">
+        <v>349</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2430.4694</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-38128.40011064005</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>348</v>
+      </c>
+      <c r="C257" t="n">
+        <v>348</v>
+      </c>
+      <c r="D257" t="n">
+        <v>348</v>
+      </c>
+      <c r="E257" t="n">
+        <v>348</v>
+      </c>
+      <c r="F257" t="n">
+        <v>10305.8725</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-48434.27261064004</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>349</v>
+      </c>
+      <c r="C258" t="n">
+        <v>349</v>
+      </c>
+      <c r="D258" t="n">
+        <v>349</v>
+      </c>
+      <c r="E258" t="n">
+        <v>349</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2214.6414</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-46219.63121064004</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>349</v>
+      </c>
+      <c r="C259" t="n">
+        <v>349</v>
+      </c>
+      <c r="D259" t="n">
+        <v>349</v>
+      </c>
+      <c r="E259" t="n">
+        <v>349</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1274.9258</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-46219.63121064004</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>349</v>
+      </c>
+      <c r="C260" t="n">
+        <v>349</v>
+      </c>
+      <c r="D260" t="n">
+        <v>349</v>
+      </c>
+      <c r="E260" t="n">
+        <v>349</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1160.1824</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-46219.63121064004</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>350</v>
+      </c>
+      <c r="C261" t="n">
+        <v>350</v>
+      </c>
+      <c r="D261" t="n">
+        <v>350</v>
+      </c>
+      <c r="E261" t="n">
+        <v>350</v>
+      </c>
+      <c r="F261" t="n">
+        <v>28</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-46191.63121064004</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>350</v>
+      </c>
+      <c r="C262" t="n">
+        <v>350</v>
+      </c>
+      <c r="D262" t="n">
+        <v>350</v>
+      </c>
+      <c r="E262" t="n">
+        <v>350</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1388.29</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-46191.63121064004</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>349</v>
+      </c>
+      <c r="C263" t="n">
+        <v>349</v>
+      </c>
+      <c r="D263" t="n">
+        <v>349</v>
+      </c>
+      <c r="E263" t="n">
+        <v>349</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1886.3896</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-48078.02081064005</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>348</v>
+      </c>
+      <c r="C264" t="n">
+        <v>348</v>
+      </c>
+      <c r="D264" t="n">
+        <v>348</v>
+      </c>
+      <c r="E264" t="n">
+        <v>348</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1548.1425</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-49626.16331064005</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>348</v>
+      </c>
+      <c r="C265" t="n">
+        <v>348</v>
+      </c>
+      <c r="D265" t="n">
+        <v>348</v>
+      </c>
+      <c r="E265" t="n">
+        <v>348</v>
+      </c>
+      <c r="F265" t="n">
+        <v>70</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-49626.16331064005</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>350</v>
+      </c>
+      <c r="C266" t="n">
+        <v>350</v>
+      </c>
+      <c r="D266" t="n">
+        <v>350</v>
+      </c>
+      <c r="E266" t="n">
+        <v>350</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1296</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-48330.16331064005</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>349</v>
+      </c>
+      <c r="C267" t="n">
+        <v>349</v>
+      </c>
+      <c r="D267" t="n">
+        <v>349</v>
+      </c>
+      <c r="E267" t="n">
+        <v>349</v>
+      </c>
+      <c r="F267" t="n">
+        <v>2</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-48332.16331064005</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>349</v>
+      </c>
+      <c r="C268" t="n">
+        <v>349</v>
+      </c>
+      <c r="D268" t="n">
+        <v>349</v>
+      </c>
+      <c r="E268" t="n">
+        <v>349</v>
+      </c>
+      <c r="F268" t="n">
+        <v>892.3024</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-48332.16331064005</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>349</v>
+      </c>
+      <c r="C269" t="n">
+        <v>349</v>
+      </c>
+      <c r="D269" t="n">
+        <v>349</v>
+      </c>
+      <c r="E269" t="n">
+        <v>349</v>
+      </c>
+      <c r="F269" t="n">
+        <v>345.4468</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-48332.16331064005</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>348</v>
+      </c>
+      <c r="C270" t="n">
+        <v>349</v>
+      </c>
+      <c r="D270" t="n">
+        <v>349</v>
+      </c>
+      <c r="E270" t="n">
+        <v>348</v>
+      </c>
+      <c r="F270" t="n">
+        <v>475.5159</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-48332.16331064005</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>349</v>
+      </c>
+      <c r="C271" t="n">
+        <v>349</v>
+      </c>
+      <c r="D271" t="n">
+        <v>349</v>
+      </c>
+      <c r="E271" t="n">
+        <v>348</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1054.1717</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-48332.16331064005</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>349</v>
+      </c>
+      <c r="C272" t="n">
+        <v>349</v>
+      </c>
+      <c r="D272" t="n">
+        <v>349</v>
+      </c>
+      <c r="E272" t="n">
+        <v>349</v>
+      </c>
+      <c r="F272" t="n">
+        <v>181.9494</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-48332.16331064005</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>349</v>
+      </c>
+      <c r="C273" t="n">
+        <v>349</v>
+      </c>
+      <c r="D273" t="n">
+        <v>349</v>
+      </c>
+      <c r="E273" t="n">
+        <v>349</v>
+      </c>
+      <c r="F273" t="n">
+        <v>976.5122</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-48332.16331064005</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>349</v>
+      </c>
+      <c r="C274" t="n">
+        <v>349</v>
+      </c>
+      <c r="D274" t="n">
+        <v>349</v>
+      </c>
+      <c r="E274" t="n">
+        <v>349</v>
+      </c>
+      <c r="F274" t="n">
+        <v>257.8796</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-48332.16331064005</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>349</v>
+      </c>
+      <c r="C275" t="n">
+        <v>349</v>
+      </c>
+      <c r="D275" t="n">
+        <v>349</v>
+      </c>
+      <c r="E275" t="n">
+        <v>349</v>
+      </c>
+      <c r="F275" t="n">
+        <v>93.1677</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-48332.16331064005</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>349</v>
+      </c>
+      <c r="C276" t="n">
+        <v>349</v>
+      </c>
+      <c r="D276" t="n">
+        <v>349</v>
+      </c>
+      <c r="E276" t="n">
+        <v>349</v>
+      </c>
+      <c r="F276" t="n">
+        <v>364</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-48332.16331064005</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>349</v>
+      </c>
+      <c r="C277" t="n">
+        <v>349</v>
+      </c>
+      <c r="D277" t="n">
+        <v>349</v>
+      </c>
+      <c r="E277" t="n">
+        <v>349</v>
+      </c>
+      <c r="F277" t="n">
+        <v>50</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-48332.16331064005</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>349</v>
+      </c>
+      <c r="C278" t="n">
+        <v>349</v>
+      </c>
+      <c r="D278" t="n">
+        <v>349</v>
+      </c>
+      <c r="E278" t="n">
+        <v>349</v>
+      </c>
+      <c r="F278" t="n">
+        <v>116.5089</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-48332.16331064005</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>349</v>
+      </c>
+      <c r="C279" t="n">
+        <v>348</v>
+      </c>
+      <c r="D279" t="n">
+        <v>349</v>
+      </c>
+      <c r="E279" t="n">
+        <v>348</v>
+      </c>
+      <c r="F279" t="n">
+        <v>369</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-48701.16331064005</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>349</v>
+      </c>
+      <c r="C280" t="n">
+        <v>349</v>
+      </c>
+      <c r="D280" t="n">
+        <v>349</v>
+      </c>
+      <c r="E280" t="n">
+        <v>349</v>
+      </c>
+      <c r="F280" t="n">
+        <v>164.8954</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-48536.26791064005</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>350</v>
+      </c>
+      <c r="C281" t="n">
+        <v>350</v>
+      </c>
+      <c r="D281" t="n">
+        <v>350</v>
+      </c>
+      <c r="E281" t="n">
+        <v>350</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1689.6285</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-46846.63941064005</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>348</v>
+      </c>
+      <c r="C282" t="n">
+        <v>350</v>
+      </c>
+      <c r="D282" t="n">
+        <v>350</v>
+      </c>
+      <c r="E282" t="n">
+        <v>348</v>
+      </c>
+      <c r="F282" t="n">
+        <v>2541.9073</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-46846.63941064005</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>348</v>
+      </c>
+      <c r="C283" t="n">
+        <v>348</v>
+      </c>
+      <c r="D283" t="n">
+        <v>348</v>
+      </c>
+      <c r="E283" t="n">
+        <v>348</v>
+      </c>
+      <c r="F283" t="n">
+        <v>3027.5477</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-49874.18711064005</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>349</v>
+      </c>
+      <c r="C284" t="n">
+        <v>349</v>
+      </c>
+      <c r="D284" t="n">
+        <v>349</v>
+      </c>
+      <c r="E284" t="n">
+        <v>349</v>
+      </c>
+      <c r="F284" t="n">
+        <v>307</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-49567.18711064005</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>349</v>
+      </c>
+      <c r="C285" t="n">
+        <v>349</v>
+      </c>
+      <c r="D285" t="n">
+        <v>349</v>
+      </c>
+      <c r="E285" t="n">
+        <v>349</v>
+      </c>
+      <c r="F285" t="n">
+        <v>888.3129</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-49567.18711064005</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>348</v>
+      </c>
+      <c r="C286" t="n">
+        <v>348</v>
+      </c>
+      <c r="D286" t="n">
+        <v>348</v>
+      </c>
+      <c r="E286" t="n">
+        <v>348</v>
+      </c>
+      <c r="F286" t="n">
+        <v>847.1032</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-50414.29031064005</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>349</v>
+      </c>
+      <c r="C287" t="n">
+        <v>349</v>
+      </c>
+      <c r="D287" t="n">
+        <v>349</v>
+      </c>
+      <c r="E287" t="n">
+        <v>349</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1275.089</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-49139.20131064005</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>349</v>
+      </c>
+      <c r="C288" t="n">
+        <v>349</v>
+      </c>
+      <c r="D288" t="n">
+        <v>349</v>
+      </c>
+      <c r="E288" t="n">
+        <v>349</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1024.939</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-49139.20131064005</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>347</v>
+      </c>
+      <c r="C289" t="n">
+        <v>347</v>
+      </c>
+      <c r="D289" t="n">
+        <v>347</v>
+      </c>
+      <c r="E289" t="n">
+        <v>347</v>
+      </c>
+      <c r="F289" t="n">
+        <v>75.9076</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-49215.10891064005</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>349</v>
+      </c>
+      <c r="C290" t="n">
+        <v>349</v>
+      </c>
+      <c r="D290" t="n">
+        <v>349</v>
+      </c>
+      <c r="E290" t="n">
+        <v>349</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-49214.10891064005</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>349</v>
+      </c>
+      <c r="C291" t="n">
+        <v>349</v>
+      </c>
+      <c r="D291" t="n">
+        <v>349</v>
+      </c>
+      <c r="E291" t="n">
+        <v>349</v>
+      </c>
+      <c r="F291" t="n">
+        <v>151.0663</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-49214.10891064005</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>349</v>
+      </c>
+      <c r="C292" t="n">
+        <v>349</v>
+      </c>
+      <c r="D292" t="n">
+        <v>349</v>
+      </c>
+      <c r="E292" t="n">
+        <v>349</v>
+      </c>
+      <c r="F292" t="n">
+        <v>100.1708</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-49214.10891064005</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>349</v>
+      </c>
+      <c r="C293" t="n">
+        <v>349</v>
+      </c>
+      <c r="D293" t="n">
+        <v>349</v>
+      </c>
+      <c r="E293" t="n">
+        <v>349</v>
+      </c>
+      <c r="F293" t="n">
+        <v>361.25</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-49214.10891064005</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>348</v>
+      </c>
+      <c r="C294" t="n">
+        <v>348</v>
+      </c>
+      <c r="D294" t="n">
+        <v>348</v>
+      </c>
+      <c r="E294" t="n">
+        <v>348</v>
+      </c>
+      <c r="F294" t="n">
+        <v>581.1781</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-49795.28701064004</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>348</v>
+      </c>
+      <c r="C295" t="n">
+        <v>347</v>
+      </c>
+      <c r="D295" t="n">
+        <v>348</v>
+      </c>
+      <c r="E295" t="n">
+        <v>347</v>
+      </c>
+      <c r="F295" t="n">
+        <v>820.8706</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-50616.15761064005</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>347</v>
+      </c>
+      <c r="C296" t="n">
+        <v>347</v>
+      </c>
+      <c r="D296" t="n">
+        <v>347</v>
+      </c>
+      <c r="E296" t="n">
+        <v>347</v>
+      </c>
+      <c r="F296" t="n">
+        <v>200</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-50616.15761064005</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>347</v>
+      </c>
+      <c r="J296" t="n">
+        <v>347</v>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>347</v>
+      </c>
+      <c r="C297" t="n">
+        <v>347</v>
+      </c>
+      <c r="D297" t="n">
+        <v>347</v>
+      </c>
+      <c r="E297" t="n">
+        <v>347</v>
+      </c>
+      <c r="F297" t="n">
+        <v>690.7231</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-50616.15761064005</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>347</v>
+      </c>
+      <c r="J297" t="n">
+        <v>347</v>
+      </c>
+      <c r="K297" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>348</v>
-      </c>
-      <c r="C231" t="n">
-        <v>349</v>
-      </c>
-      <c r="D231" t="n">
-        <v>349</v>
-      </c>
-      <c r="E231" t="n">
-        <v>348</v>
-      </c>
-      <c r="F231" t="n">
-        <v>207.8751</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-39569.43261064005</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>348</v>
-      </c>
-      <c r="J231" t="n">
-        <v>348</v>
-      </c>
-      <c r="K231" t="inlineStr">
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>347</v>
+      </c>
+      <c r="C298" t="n">
+        <v>346</v>
+      </c>
+      <c r="D298" t="n">
+        <v>347</v>
+      </c>
+      <c r="E298" t="n">
+        <v>346</v>
+      </c>
+      <c r="F298" t="n">
+        <v>3349</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-53965.15761064005</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>347</v>
+      </c>
+      <c r="J298" t="n">
+        <v>347</v>
+      </c>
+      <c r="K298" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>348</v>
-      </c>
-      <c r="C232" t="n">
-        <v>348</v>
-      </c>
-      <c r="D232" t="n">
-        <v>348</v>
-      </c>
-      <c r="E232" t="n">
-        <v>348</v>
-      </c>
-      <c r="F232" t="n">
-        <v>4755.9727</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-44325.40531064005</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>348</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>349</v>
-      </c>
-      <c r="C233" t="n">
-        <v>349</v>
-      </c>
-      <c r="D233" t="n">
-        <v>349</v>
-      </c>
-      <c r="E233" t="n">
-        <v>349</v>
-      </c>
-      <c r="F233" t="n">
-        <v>1</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-44324.40531064005</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>348</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>348</v>
-      </c>
-      <c r="C234" t="n">
-        <v>349</v>
-      </c>
-      <c r="D234" t="n">
-        <v>349</v>
-      </c>
-      <c r="E234" t="n">
-        <v>348</v>
-      </c>
-      <c r="F234" t="n">
-        <v>1231.787</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-44324.40531064005</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>348</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>349</v>
-      </c>
-      <c r="C235" t="n">
-        <v>349</v>
-      </c>
-      <c r="D235" t="n">
-        <v>349</v>
-      </c>
-      <c r="E235" t="n">
-        <v>349</v>
-      </c>
-      <c r="F235" t="n">
-        <v>4375.4019</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-44324.40531064005</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>348</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>349</v>
-      </c>
-      <c r="C236" t="n">
-        <v>349</v>
-      </c>
-      <c r="D236" t="n">
-        <v>349</v>
-      </c>
-      <c r="E236" t="n">
-        <v>349</v>
-      </c>
-      <c r="F236" t="n">
-        <v>359.5322</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-44324.40531064005</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>348</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>348</v>
-      </c>
-      <c r="C237" t="n">
-        <v>348</v>
-      </c>
-      <c r="D237" t="n">
-        <v>348</v>
-      </c>
-      <c r="E237" t="n">
-        <v>348</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1556.5285</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-45880.93381064005</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>348</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>349</v>
-      </c>
-      <c r="C238" t="n">
-        <v>349</v>
-      </c>
-      <c r="D238" t="n">
-        <v>349</v>
-      </c>
-      <c r="E238" t="n">
-        <v>349</v>
-      </c>
-      <c r="F238" t="n">
-        <v>839.734</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-45041.19981064005</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>348</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>350</v>
-      </c>
-      <c r="C239" t="n">
-        <v>350</v>
-      </c>
-      <c r="D239" t="n">
-        <v>350</v>
-      </c>
-      <c r="E239" t="n">
-        <v>350</v>
-      </c>
-      <c r="F239" t="n">
-        <v>350.105</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-44691.09481064005</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>349</v>
-      </c>
-      <c r="J239" t="n">
-        <v>348</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>350</v>
-      </c>
-      <c r="C240" t="n">
-        <v>350</v>
-      </c>
-      <c r="D240" t="n">
-        <v>350</v>
-      </c>
-      <c r="E240" t="n">
-        <v>350</v>
-      </c>
-      <c r="F240" t="n">
-        <v>104.28</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-44691.09481064005</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>348</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>350</v>
-      </c>
-      <c r="C241" t="n">
-        <v>350</v>
-      </c>
-      <c r="D241" t="n">
-        <v>350</v>
-      </c>
-      <c r="E241" t="n">
-        <v>350</v>
-      </c>
-      <c r="F241" t="n">
-        <v>127.5982</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-44691.09481064005</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>348</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>350</v>
-      </c>
-      <c r="C242" t="n">
-        <v>350</v>
-      </c>
-      <c r="D242" t="n">
-        <v>350</v>
-      </c>
-      <c r="E242" t="n">
-        <v>350</v>
-      </c>
-      <c r="F242" t="n">
-        <v>4360.2756</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-44691.09481064005</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>348</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>349</v>
-      </c>
-      <c r="C243" t="n">
-        <v>349</v>
-      </c>
-      <c r="D243" t="n">
-        <v>349</v>
-      </c>
-      <c r="E243" t="n">
-        <v>349</v>
-      </c>
-      <c r="F243" t="n">
-        <v>301</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-44992.09481064005</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>348</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>350</v>
-      </c>
-      <c r="C244" t="n">
-        <v>350</v>
-      </c>
-      <c r="D244" t="n">
-        <v>350</v>
-      </c>
-      <c r="E244" t="n">
-        <v>350</v>
-      </c>
-      <c r="F244" t="n">
-        <v>15338.8525</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-29653.24231064005</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>348</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>350</v>
-      </c>
-      <c r="C245" t="n">
-        <v>350</v>
-      </c>
-      <c r="D245" t="n">
-        <v>350</v>
-      </c>
-      <c r="E245" t="n">
-        <v>350</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1000.1971</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-29653.24231064005</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>348</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>350</v>
-      </c>
-      <c r="C246" t="n">
-        <v>350</v>
-      </c>
-      <c r="D246" t="n">
-        <v>350</v>
-      </c>
-      <c r="E246" t="n">
-        <v>350</v>
-      </c>
-      <c r="F246" t="n">
-        <v>4602.8721</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-29653.24231064005</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>348</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>350</v>
-      </c>
-      <c r="C247" t="n">
-        <v>350</v>
-      </c>
-      <c r="D247" t="n">
-        <v>350</v>
-      </c>
-      <c r="E247" t="n">
-        <v>350</v>
-      </c>
-      <c r="F247" t="n">
-        <v>53.6599</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-29653.24231064005</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>348</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>350</v>
-      </c>
-      <c r="C248" t="n">
-        <v>350</v>
-      </c>
-      <c r="D248" t="n">
-        <v>350</v>
-      </c>
-      <c r="E248" t="n">
-        <v>350</v>
-      </c>
-      <c r="F248" t="n">
-        <v>316.1664</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-29653.24231064005</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>348</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>350</v>
-      </c>
-      <c r="C249" t="n">
-        <v>349</v>
-      </c>
-      <c r="D249" t="n">
-        <v>350</v>
-      </c>
-      <c r="E249" t="n">
-        <v>349</v>
-      </c>
-      <c r="F249" t="n">
-        <v>6054.6884</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-35707.93071064004</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>348</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>349</v>
-      </c>
-      <c r="C250" t="n">
-        <v>349</v>
-      </c>
-      <c r="D250" t="n">
-        <v>349</v>
-      </c>
-      <c r="E250" t="n">
-        <v>349</v>
-      </c>
-      <c r="F250" t="n">
-        <v>5087.0839</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-35707.93071064004</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>348</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>349</v>
-      </c>
-      <c r="C251" t="n">
-        <v>349</v>
-      </c>
-      <c r="D251" t="n">
-        <v>349</v>
-      </c>
-      <c r="E251" t="n">
-        <v>349</v>
-      </c>
-      <c r="F251" t="n">
-        <v>926.3321999999999</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-35707.93071064004</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>348</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>350</v>
-      </c>
-      <c r="C252" t="n">
-        <v>350</v>
-      </c>
-      <c r="D252" t="n">
-        <v>350</v>
-      </c>
-      <c r="E252" t="n">
-        <v>350</v>
-      </c>
-      <c r="F252" t="n">
-        <v>10</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-35697.93071064004</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>348</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>350</v>
-      </c>
-      <c r="C253" t="n">
-        <v>350</v>
-      </c>
-      <c r="D253" t="n">
-        <v>350</v>
-      </c>
-      <c r="E253" t="n">
-        <v>350</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1071.4661</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-35697.93071064004</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>348</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>350</v>
-      </c>
-      <c r="C254" t="n">
-        <v>350</v>
-      </c>
-      <c r="D254" t="n">
-        <v>350</v>
-      </c>
-      <c r="E254" t="n">
-        <v>350</v>
-      </c>
-      <c r="F254" t="n">
-        <v>1131.5528</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-35697.93071064004</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>348</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>350</v>
-      </c>
-      <c r="C255" t="n">
-        <v>350</v>
-      </c>
-      <c r="D255" t="n">
-        <v>350</v>
-      </c>
-      <c r="E255" t="n">
-        <v>350</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1555.7314</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-35697.93071064004</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>348</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>349</v>
-      </c>
-      <c r="C256" t="n">
-        <v>349</v>
-      </c>
-      <c r="D256" t="n">
-        <v>349</v>
-      </c>
-      <c r="E256" t="n">
-        <v>349</v>
-      </c>
-      <c r="F256" t="n">
-        <v>2430.4694</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-38128.40011064005</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>348</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>348</v>
-      </c>
-      <c r="C257" t="n">
-        <v>348</v>
-      </c>
-      <c r="D257" t="n">
-        <v>348</v>
-      </c>
-      <c r="E257" t="n">
-        <v>348</v>
-      </c>
-      <c r="F257" t="n">
-        <v>10305.8725</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-48434.27261064004</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>348</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>349</v>
-      </c>
-      <c r="C258" t="n">
-        <v>349</v>
-      </c>
-      <c r="D258" t="n">
-        <v>349</v>
-      </c>
-      <c r="E258" t="n">
-        <v>349</v>
-      </c>
-      <c r="F258" t="n">
-        <v>2214.6414</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-46219.63121064004</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>348</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>349</v>
-      </c>
-      <c r="C259" t="n">
-        <v>349</v>
-      </c>
-      <c r="D259" t="n">
-        <v>349</v>
-      </c>
-      <c r="E259" t="n">
-        <v>349</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1274.9258</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-46219.63121064004</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>348</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>349</v>
-      </c>
-      <c r="C260" t="n">
-        <v>349</v>
-      </c>
-      <c r="D260" t="n">
-        <v>349</v>
-      </c>
-      <c r="E260" t="n">
-        <v>349</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1160.1824</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-46219.63121064004</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>348</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>350</v>
-      </c>
-      <c r="C261" t="n">
-        <v>350</v>
-      </c>
-      <c r="D261" t="n">
-        <v>350</v>
-      </c>
-      <c r="E261" t="n">
-        <v>350</v>
-      </c>
-      <c r="F261" t="n">
-        <v>28</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-46191.63121064004</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>348</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>350</v>
-      </c>
-      <c r="C262" t="n">
-        <v>350</v>
-      </c>
-      <c r="D262" t="n">
-        <v>350</v>
-      </c>
-      <c r="E262" t="n">
-        <v>350</v>
-      </c>
-      <c r="F262" t="n">
-        <v>1388.29</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-46191.63121064004</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>348</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>349</v>
-      </c>
-      <c r="C263" t="n">
-        <v>349</v>
-      </c>
-      <c r="D263" t="n">
-        <v>349</v>
-      </c>
-      <c r="E263" t="n">
-        <v>349</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1886.3896</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-48078.02081064005</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>348</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>348</v>
-      </c>
-      <c r="C264" t="n">
-        <v>348</v>
-      </c>
-      <c r="D264" t="n">
-        <v>348</v>
-      </c>
-      <c r="E264" t="n">
-        <v>348</v>
-      </c>
-      <c r="F264" t="n">
-        <v>1548.1425</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-49626.16331064005</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>348</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>348</v>
-      </c>
-      <c r="C265" t="n">
-        <v>348</v>
-      </c>
-      <c r="D265" t="n">
-        <v>348</v>
-      </c>
-      <c r="E265" t="n">
-        <v>348</v>
-      </c>
-      <c r="F265" t="n">
-        <v>70</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-49626.16331064005</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>348</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>350</v>
-      </c>
-      <c r="C266" t="n">
-        <v>350</v>
-      </c>
-      <c r="D266" t="n">
-        <v>350</v>
-      </c>
-      <c r="E266" t="n">
-        <v>350</v>
-      </c>
-      <c r="F266" t="n">
-        <v>1296</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-48330.16331064005</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>348</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>349</v>
-      </c>
-      <c r="C267" t="n">
-        <v>349</v>
-      </c>
-      <c r="D267" t="n">
-        <v>349</v>
-      </c>
-      <c r="E267" t="n">
-        <v>349</v>
-      </c>
-      <c r="F267" t="n">
-        <v>2</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-48332.16331064005</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>348</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>349</v>
-      </c>
-      <c r="C268" t="n">
-        <v>349</v>
-      </c>
-      <c r="D268" t="n">
-        <v>349</v>
-      </c>
-      <c r="E268" t="n">
-        <v>349</v>
-      </c>
-      <c r="F268" t="n">
-        <v>892.3024</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-48332.16331064005</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>348</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>349</v>
-      </c>
-      <c r="C269" t="n">
-        <v>349</v>
-      </c>
-      <c r="D269" t="n">
-        <v>349</v>
-      </c>
-      <c r="E269" t="n">
-        <v>349</v>
-      </c>
-      <c r="F269" t="n">
-        <v>345.4468</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-48332.16331064005</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>348</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>348</v>
-      </c>
-      <c r="C270" t="n">
-        <v>349</v>
-      </c>
-      <c r="D270" t="n">
-        <v>349</v>
-      </c>
-      <c r="E270" t="n">
-        <v>348</v>
-      </c>
-      <c r="F270" t="n">
-        <v>475.5159</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-48332.16331064005</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>348</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>349</v>
-      </c>
-      <c r="C271" t="n">
-        <v>349</v>
-      </c>
-      <c r="D271" t="n">
-        <v>349</v>
-      </c>
-      <c r="E271" t="n">
-        <v>348</v>
-      </c>
-      <c r="F271" t="n">
-        <v>1054.1717</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-48332.16331064005</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>348</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>349</v>
-      </c>
-      <c r="C272" t="n">
-        <v>349</v>
-      </c>
-      <c r="D272" t="n">
-        <v>349</v>
-      </c>
-      <c r="E272" t="n">
-        <v>349</v>
-      </c>
-      <c r="F272" t="n">
-        <v>181.9494</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-48332.16331064005</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>348</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>349</v>
-      </c>
-      <c r="C273" t="n">
-        <v>349</v>
-      </c>
-      <c r="D273" t="n">
-        <v>349</v>
-      </c>
-      <c r="E273" t="n">
-        <v>349</v>
-      </c>
-      <c r="F273" t="n">
-        <v>976.5122</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-48332.16331064005</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>348</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>349</v>
-      </c>
-      <c r="C274" t="n">
-        <v>349</v>
-      </c>
-      <c r="D274" t="n">
-        <v>349</v>
-      </c>
-      <c r="E274" t="n">
-        <v>349</v>
-      </c>
-      <c r="F274" t="n">
-        <v>257.8796</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-48332.16331064005</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>348</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>349</v>
-      </c>
-      <c r="C275" t="n">
-        <v>349</v>
-      </c>
-      <c r="D275" t="n">
-        <v>349</v>
-      </c>
-      <c r="E275" t="n">
-        <v>349</v>
-      </c>
-      <c r="F275" t="n">
-        <v>93.1677</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-48332.16331064005</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>348</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>349</v>
-      </c>
-      <c r="C276" t="n">
-        <v>349</v>
-      </c>
-      <c r="D276" t="n">
-        <v>349</v>
-      </c>
-      <c r="E276" t="n">
-        <v>349</v>
-      </c>
-      <c r="F276" t="n">
-        <v>364</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-48332.16331064005</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>349</v>
-      </c>
-      <c r="J276" t="n">
-        <v>348</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>349</v>
-      </c>
-      <c r="C277" t="n">
-        <v>349</v>
-      </c>
-      <c r="D277" t="n">
-        <v>349</v>
-      </c>
-      <c r="E277" t="n">
-        <v>349</v>
-      </c>
-      <c r="F277" t="n">
-        <v>50</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-48332.16331064005</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>349</v>
-      </c>
-      <c r="J277" t="n">
-        <v>348</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>349</v>
-      </c>
-      <c r="C278" t="n">
-        <v>349</v>
-      </c>
-      <c r="D278" t="n">
-        <v>349</v>
-      </c>
-      <c r="E278" t="n">
-        <v>349</v>
-      </c>
-      <c r="F278" t="n">
-        <v>116.5089</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-48332.16331064005</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>349</v>
-      </c>
-      <c r="J278" t="n">
-        <v>348</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>349</v>
-      </c>
-      <c r="C279" t="n">
-        <v>348</v>
-      </c>
-      <c r="D279" t="n">
-        <v>349</v>
-      </c>
-      <c r="E279" t="n">
-        <v>348</v>
-      </c>
-      <c r="F279" t="n">
-        <v>369</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-48701.16331064005</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>348</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>349</v>
-      </c>
-      <c r="C280" t="n">
-        <v>349</v>
-      </c>
-      <c r="D280" t="n">
-        <v>349</v>
-      </c>
-      <c r="E280" t="n">
-        <v>349</v>
-      </c>
-      <c r="F280" t="n">
-        <v>164.8954</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-48536.26791064005</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>348</v>
-      </c>
-      <c r="J280" t="n">
-        <v>348</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>350</v>
-      </c>
-      <c r="C281" t="n">
-        <v>350</v>
-      </c>
-      <c r="D281" t="n">
-        <v>350</v>
-      </c>
-      <c r="E281" t="n">
-        <v>350</v>
-      </c>
-      <c r="F281" t="n">
-        <v>1689.6285</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-46846.63941064005</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>349</v>
-      </c>
-      <c r="J281" t="n">
-        <v>348</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>348</v>
-      </c>
-      <c r="C282" t="n">
-        <v>350</v>
-      </c>
-      <c r="D282" t="n">
-        <v>350</v>
-      </c>
-      <c r="E282" t="n">
-        <v>348</v>
-      </c>
-      <c r="F282" t="n">
-        <v>2541.9073</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-46846.63941064005</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>350</v>
-      </c>
-      <c r="J282" t="n">
-        <v>348</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>348</v>
-      </c>
-      <c r="C283" t="n">
-        <v>348</v>
-      </c>
-      <c r="D283" t="n">
-        <v>348</v>
-      </c>
-      <c r="E283" t="n">
-        <v>348</v>
-      </c>
-      <c r="F283" t="n">
-        <v>3027.5477</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-49874.18711064005</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>348</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>349</v>
-      </c>
-      <c r="C284" t="n">
-        <v>349</v>
-      </c>
-      <c r="D284" t="n">
-        <v>349</v>
-      </c>
-      <c r="E284" t="n">
-        <v>349</v>
-      </c>
-      <c r="F284" t="n">
-        <v>307</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-49567.18711064005</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>348</v>
-      </c>
-      <c r="J284" t="n">
-        <v>348</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>349</v>
-      </c>
-      <c r="C285" t="n">
-        <v>349</v>
-      </c>
-      <c r="D285" t="n">
-        <v>349</v>
-      </c>
-      <c r="E285" t="n">
-        <v>349</v>
-      </c>
-      <c r="F285" t="n">
-        <v>888.3129</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-49567.18711064005</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>349</v>
-      </c>
-      <c r="J285" t="n">
-        <v>348</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>348</v>
-      </c>
-      <c r="C286" t="n">
-        <v>348</v>
-      </c>
-      <c r="D286" t="n">
-        <v>348</v>
-      </c>
-      <c r="E286" t="n">
-        <v>348</v>
-      </c>
-      <c r="F286" t="n">
-        <v>847.1032</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-50414.29031064005</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>349</v>
-      </c>
-      <c r="J286" t="n">
-        <v>348</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>349</v>
-      </c>
-      <c r="C287" t="n">
-        <v>349</v>
-      </c>
-      <c r="D287" t="n">
-        <v>349</v>
-      </c>
-      <c r="E287" t="n">
-        <v>349</v>
-      </c>
-      <c r="F287" t="n">
-        <v>1275.089</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-49139.20131064005</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>348</v>
-      </c>
-      <c r="J287" t="n">
-        <v>348</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>349</v>
-      </c>
-      <c r="C288" t="n">
-        <v>349</v>
-      </c>
-      <c r="D288" t="n">
-        <v>349</v>
-      </c>
-      <c r="E288" t="n">
-        <v>349</v>
-      </c>
-      <c r="F288" t="n">
-        <v>1024.939</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-49139.20131064005</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>349</v>
-      </c>
-      <c r="J288" t="n">
-        <v>348</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>347</v>
-      </c>
-      <c r="C289" t="n">
-        <v>347</v>
-      </c>
-      <c r="D289" t="n">
-        <v>347</v>
-      </c>
-      <c r="E289" t="n">
-        <v>347</v>
-      </c>
-      <c r="F289" t="n">
-        <v>75.9076</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-49215.10891064005</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>349</v>
-      </c>
-      <c r="J289" t="n">
-        <v>348</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>349</v>
-      </c>
-      <c r="C290" t="n">
-        <v>349</v>
-      </c>
-      <c r="D290" t="n">
-        <v>349</v>
-      </c>
-      <c r="E290" t="n">
-        <v>349</v>
-      </c>
-      <c r="F290" t="n">
-        <v>1</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-49214.10891064005</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>347</v>
-      </c>
-      <c r="J290" t="n">
-        <v>348</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>349</v>
-      </c>
-      <c r="C291" t="n">
-        <v>349</v>
-      </c>
-      <c r="D291" t="n">
-        <v>349</v>
-      </c>
-      <c r="E291" t="n">
-        <v>349</v>
-      </c>
-      <c r="F291" t="n">
-        <v>151.0663</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-49214.10891064005</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>349</v>
-      </c>
-      <c r="J291" t="n">
-        <v>348</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>349</v>
-      </c>
-      <c r="C292" t="n">
-        <v>349</v>
-      </c>
-      <c r="D292" t="n">
-        <v>349</v>
-      </c>
-      <c r="E292" t="n">
-        <v>349</v>
-      </c>
-      <c r="F292" t="n">
-        <v>100.1708</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-49214.10891064005</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>349</v>
-      </c>
-      <c r="J292" t="n">
-        <v>348</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>349</v>
-      </c>
-      <c r="C293" t="n">
-        <v>349</v>
-      </c>
-      <c r="D293" t="n">
-        <v>349</v>
-      </c>
-      <c r="E293" t="n">
-        <v>349</v>
-      </c>
-      <c r="F293" t="n">
-        <v>361.25</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-49214.10891064005</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>349</v>
-      </c>
-      <c r="J293" t="n">
-        <v>348</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>348</v>
-      </c>
-      <c r="C294" t="n">
-        <v>348</v>
-      </c>
-      <c r="D294" t="n">
-        <v>348</v>
-      </c>
-      <c r="E294" t="n">
-        <v>348</v>
-      </c>
-      <c r="F294" t="n">
-        <v>581.1781</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-49795.28701064004</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>349</v>
-      </c>
-      <c r="J294" t="n">
-        <v>348</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>348</v>
-      </c>
-      <c r="C295" t="n">
-        <v>347</v>
-      </c>
-      <c r="D295" t="n">
-        <v>348</v>
-      </c>
-      <c r="E295" t="n">
-        <v>347</v>
-      </c>
-      <c r="F295" t="n">
-        <v>820.8706</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-50616.15761064005</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>348</v>
-      </c>
-      <c r="J295" t="n">
-        <v>348</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>347</v>
-      </c>
-      <c r="C296" t="n">
-        <v>347</v>
-      </c>
-      <c r="D296" t="n">
-        <v>347</v>
-      </c>
-      <c r="E296" t="n">
-        <v>347</v>
-      </c>
-      <c r="F296" t="n">
-        <v>200</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-50616.15761064005</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>347</v>
-      </c>
-      <c r="J296" t="n">
-        <v>348</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>347</v>
-      </c>
-      <c r="C297" t="n">
-        <v>347</v>
-      </c>
-      <c r="D297" t="n">
-        <v>347</v>
-      </c>
-      <c r="E297" t="n">
-        <v>347</v>
-      </c>
-      <c r="F297" t="n">
-        <v>690.7231</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-50616.15761064005</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>347</v>
-      </c>
-      <c r="J297" t="n">
-        <v>348</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>347</v>
-      </c>
-      <c r="C298" t="n">
-        <v>346</v>
-      </c>
-      <c r="D298" t="n">
-        <v>347</v>
-      </c>
-      <c r="E298" t="n">
-        <v>346</v>
-      </c>
-      <c r="F298" t="n">
-        <v>3349</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-53965.15761064005</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>347</v>
-      </c>
-      <c r="J298" t="n">
-        <v>348</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10724,7 +10278,7 @@
         <v>346</v>
       </c>
       <c r="J299" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10765,7 +10319,7 @@
         <v>350</v>
       </c>
       <c r="J300" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10800,13 +10354,11 @@
         <v>-44258.82101064004</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10845,7 +10397,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10880,13 +10432,11 @@
         <v>-44501.88631064005</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10925,7 +10475,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10964,7 +10514,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11003,7 +10553,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11038,13 +10588,11 @@
         <v>-45111.97831064004</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11079,13 +10627,11 @@
         <v>-42217.29701064005</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11120,13 +10666,11 @@
         <v>-42217.29701064005</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11161,13 +10705,11 @@
         <v>-42091.41921064004</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11206,7 +10748,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11241,13 +10783,11 @@
         <v>-42104.49061064004</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11282,13 +10822,11 @@
         <v>-41001.35081064005</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11323,13 +10861,11 @@
         <v>-40972.72621064004</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11368,7 +10904,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11407,7 +10943,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11446,7 +10982,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11485,7 +11021,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11524,7 +11060,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11563,7 +11099,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11602,7 +11138,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11641,7 +11177,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11680,7 +11216,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11719,7 +11255,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11758,7 +11294,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11797,7 +11333,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11836,7 +11372,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11875,7 +11411,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11914,7 +11450,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11953,7 +11489,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11992,7 +11528,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12027,19 +11563,19 @@
         <v>-36611.62031064004</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L332" t="n">
-        <v>1</v>
+        <v>1.023818443804035</v>
       </c>
       <c r="M332" t="inlineStr"/>
     </row>
@@ -12069,14 +11605,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>348</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12108,14 +11638,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>348</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12144,17 +11668,11 @@
         <v>-40534.24401064004</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>348</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12183,17 +11701,11 @@
         <v>-40489.24401064004</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>348</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12222,17 +11734,11 @@
         <v>-40821.35501064004</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>348</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12261,17 +11767,11 @@
         <v>-38112.75501064004</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>348</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12300,17 +11800,11 @@
         <v>-38267.75501064004</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>348</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12339,17 +11833,11 @@
         <v>-33234.84021064004</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>348</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12378,17 +11866,11 @@
         <v>-33234.84021064004</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>348</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12417,17 +11899,11 @@
         <v>-37202.22301064004</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>348</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12456,17 +11932,11 @@
         <v>-34047.18391064004</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>348</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12495,17 +11965,11 @@
         <v>-34047.18391064004</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>348</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12537,14 +12001,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>348</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12573,17 +12031,11 @@
         <v>-34047.18391064004</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>348</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12612,17 +12064,11 @@
         <v>-33212.18391064004</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>348</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12651,17 +12097,11 @@
         <v>-33217.18391064004</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>348</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12690,17 +12130,11 @@
         <v>-33217.18391064004</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>348</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12729,17 +12163,11 @@
         <v>-33117.18391064004</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>348</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12768,17 +12196,11 @@
         <v>-33117.18391064004</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>348</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12807,23 +12229,17 @@
         <v>-33117.18391064004</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>348</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
       <c r="M352" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest MTL.xlsx
+++ b/BackTest/2019-10-21 BackTest MTL.xlsx
@@ -3124,7 +3124,7 @@
         <v>73076.28125667997</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>73078.41485667997</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>70657.34084342998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>70657.34084342998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>70658.34084342998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>70658.34084342998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>71285.18534342998</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>69824.54654342998</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>69825.54654342998</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>61007.75714342998</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>60527.53304342998</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>61147.09104342997</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>58131.03644342997</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>58131.03644342997</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>66411.74807675996</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>66412.74807675996</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>66412.74807675996</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>49931.11637675996</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>49932.11637675996</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>49931.11637675996</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>49929.11637675996</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>50017.50867675996</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>50018.50867675996</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>49173.58797675996</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>49174.58797675996</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>49020.58797675996</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>59554.71957675996</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>39180.85057675996</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -9625,10 +9625,14 @@
         <v>-48536.26791064005</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>348</v>
+      </c>
+      <c r="J280" t="n">
+        <v>348</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
@@ -9658,11 +9662,19 @@
         <v>-46846.63941064005</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>349</v>
+      </c>
+      <c r="J281" t="n">
+        <v>348</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +9706,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>348</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +9745,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>348</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +9781,19 @@
         <v>-49567.18711064005</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>348</v>
+      </c>
+      <c r="J284" t="n">
+        <v>348</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +9825,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>348</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +9861,19 @@
         <v>-50414.29031064005</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>349</v>
+      </c>
+      <c r="J286" t="n">
+        <v>348</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +9902,19 @@
         <v>-49139.20131064005</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>348</v>
+      </c>
+      <c r="J287" t="n">
+        <v>348</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +9943,19 @@
         <v>-49139.20131064005</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>349</v>
+      </c>
+      <c r="J288" t="n">
+        <v>348</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +9987,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>348</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +10023,19 @@
         <v>-49214.10891064005</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>347</v>
+      </c>
+      <c r="J290" t="n">
+        <v>348</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10064,19 @@
         <v>-49214.10891064005</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>349</v>
+      </c>
+      <c r="J291" t="n">
+        <v>348</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10105,19 @@
         <v>-49214.10891064005</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>349</v>
+      </c>
+      <c r="J292" t="n">
+        <v>348</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10057,8 +10149,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>348</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10185,19 @@
         <v>-49795.28701064004</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>349</v>
+      </c>
+      <c r="J294" t="n">
+        <v>348</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10226,19 @@
         <v>-50616.15761064005</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>348</v>
+      </c>
+      <c r="J295" t="n">
+        <v>348</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10159,9 +10273,13 @@
         <v>347</v>
       </c>
       <c r="J296" t="n">
-        <v>347</v>
-      </c>
-      <c r="K296" t="inlineStr"/>
+        <v>348</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10196,11 +10314,11 @@
         <v>347</v>
       </c>
       <c r="J297" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L297" t="n">
@@ -10237,11 +10355,11 @@
         <v>347</v>
       </c>
       <c r="J298" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L298" t="n">
@@ -10278,7 +10396,7 @@
         <v>346</v>
       </c>
       <c r="J299" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10319,7 +10437,7 @@
         <v>350</v>
       </c>
       <c r="J300" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10354,11 +10472,13 @@
         <v>-44258.82101064004</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>353</v>
+      </c>
       <c r="J301" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10397,7 +10517,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10436,7 +10556,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10475,7 +10595,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10514,7 +10634,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10553,7 +10673,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10592,7 +10712,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10631,7 +10751,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10670,7 +10790,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10709,7 +10829,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10748,7 +10868,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10787,7 +10907,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10826,7 +10946,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -10865,7 +10985,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -10904,7 +11024,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -10943,7 +11063,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -10982,7 +11102,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11021,7 +11141,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11060,7 +11180,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11099,7 +11219,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11138,7 +11258,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11177,7 +11297,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11216,7 +11336,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11255,7 +11375,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11294,7 +11414,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11333,7 +11453,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11372,7 +11492,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11411,7 +11531,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11450,7 +11570,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11489,7 +11609,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11528,7 +11648,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11563,19 +11683,19 @@
         <v>-36611.62031064004</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L332" t="n">
-        <v>1.023818443804035</v>
+        <v>1</v>
       </c>
       <c r="M332" t="inlineStr"/>
     </row>
@@ -11605,8 +11725,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>348</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11638,8 +11764,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>348</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11668,11 +11800,17 @@
         <v>-40534.24401064004</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>348</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11701,11 +11839,17 @@
         <v>-40489.24401064004</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>348</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11734,11 +11878,17 @@
         <v>-40821.35501064004</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>348</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11767,11 +11917,17 @@
         <v>-38112.75501064004</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>348</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11800,11 +11956,17 @@
         <v>-38267.75501064004</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>348</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11833,11 +11995,17 @@
         <v>-33234.84021064004</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>348</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11866,11 +12034,17 @@
         <v>-33234.84021064004</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>348</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11899,11 +12073,17 @@
         <v>-37202.22301064004</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>348</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11932,11 +12112,17 @@
         <v>-34047.18391064004</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>348</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11965,11 +12151,17 @@
         <v>-34047.18391064004</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>348</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12001,8 +12193,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>348</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12031,11 +12229,17 @@
         <v>-34047.18391064004</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>348</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12064,11 +12268,17 @@
         <v>-33212.18391064004</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>348</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12097,11 +12307,17 @@
         <v>-33217.18391064004</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>348</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12130,11 +12346,17 @@
         <v>-33217.18391064004</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>348</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12163,11 +12385,17 @@
         <v>-33117.18391064004</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>348</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12196,11 +12424,17 @@
         <v>-33117.18391064004</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>348</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12229,11 +12463,17 @@
         <v>-33117.18391064004</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>348</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
